--- a/11-09-25 to 11-15-25 Milwaukee Schedule.xlsx
+++ b/11-09-25 to 11-15-25 Milwaukee Schedule.xlsx
@@ -540,24 +540,64 @@
           <t> </t>
         </is>
       </c>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ian </t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Bag 9</t>
+        </is>
+      </c>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DJ </t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Bags 1-3</t>
+        </is>
+      </c>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DJ </t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>Bags 1-3</t>
+        </is>
+      </c>
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kim </t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>Bags 5-7</t>
+        </is>
+      </c>
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="inlineStr"/>
-      <c r="V4" t="inlineStr"/>
-      <c r="W4" t="inlineStr"/>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DJ </t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>Bags 1-2</t>
+        </is>
+      </c>
       <c r="X4" t="inlineStr"/>
       <c r="Y4" t="inlineStr"/>
     </row>
@@ -571,24 +611,56 @@
           <t> </t>
         </is>
       </c>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kim </t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Bags 5-7</t>
+        </is>
+      </c>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ian </t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Bag 9</t>
+        </is>
+      </c>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr"/>
       <c r="O5" t="inlineStr"/>
       <c r="P5" t="inlineStr"/>
       <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Katherine </t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>Bag 12</t>
+        </is>
+      </c>
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="inlineStr"/>
-      <c r="V5" t="inlineStr"/>
-      <c r="W5" t="inlineStr"/>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Katherine </t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>Bags 12-13</t>
+        </is>
+      </c>
       <c r="X5" t="inlineStr"/>
       <c r="Y5" t="inlineStr"/>
     </row>
@@ -3327,7 +3399,7 @@
       <c r="U50" t="inlineStr"/>
       <c r="V50" t="inlineStr">
         <is>
-          <t>SCAN-ITEM LEVEL</t>
+          <t>MODAS-SCAN</t>
         </is>
       </c>
       <c r="W50" t="inlineStr"/>
@@ -3524,7 +3596,8 @@
       <c r="U54" t="inlineStr"/>
       <c r="V54" t="inlineStr">
         <is>
-          <t>PARK IN PARKING STRUCTURE B AND MEET IN THE LOBBY</t>
+          <t>PARK IN PARKING STRUCTURE B AND MEET IN THE LOBBY
+**BRING BACKUP DC5S**</t>
         </is>
       </c>
       <c r="W54" t="inlineStr"/>

--- a/11-09-25 to 11-15-25 Milwaukee Schedule.xlsx
+++ b/11-09-25 to 11-15-25 Milwaukee Schedule.xlsx
@@ -1541,7 +1541,7 @@
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>Anisha</t>
+          <t>Angela</t>
         </is>
       </c>
       <c r="W21" t="inlineStr">
@@ -1621,7 +1621,7 @@
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>Elijah</t>
+          <t>Anisha</t>
         </is>
       </c>
       <c r="W22" t="inlineStr">
@@ -1701,13 +1701,12 @@
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>Eva</t>
+          <t>Elijah</t>
         </is>
       </c>
       <c r="W23" t="inlineStr">
         <is>
-          <t>@ Store,
-Rx</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="X23" t="inlineStr"/>
@@ -1777,12 +1776,13 @@
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="W24" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Rx</t>
         </is>
       </c>
       <c r="X24" t="inlineStr"/>
@@ -1852,7 +1852,7 @@
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>Josh S</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="W25" t="inlineStr">

--- a/11-09-25 to 11-15-25 Milwaukee Schedule.xlsx
+++ b/11-09-25 to 11-15-25 Milwaukee Schedule.xlsx
@@ -1911,7 +1911,7 @@
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>Josh S</t>
+          <t>Justin Lee</t>
         </is>
       </c>
       <c r="S26" t="inlineStr">
@@ -1995,7 +1995,7 @@
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
+          <t>Michael N</t>
         </is>
       </c>
       <c r="S27" t="inlineStr">
@@ -2078,7 +2078,7 @@
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>Michael N</t>
+          <t>Nate</t>
         </is>
       </c>
       <c r="S28" t="inlineStr">
@@ -2145,7 +2145,7 @@
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>Nate</t>
+          <t>Qiana</t>
         </is>
       </c>
       <c r="S29" t="inlineStr">
@@ -2211,21 +2211,9 @@
         </is>
       </c>
       <c r="P30" t="inlineStr"/>
-      <c r="Q30" t="inlineStr">
-        <is>
-          <t>15)</t>
-        </is>
-      </c>
-      <c r="R30" t="inlineStr">
-        <is>
-          <t>Qiana</t>
-        </is>
-      </c>
-      <c r="S30" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="Q30" t="inlineStr"/>
+      <c r="R30" t="inlineStr"/>
+      <c r="S30" t="inlineStr"/>
       <c r="T30" t="inlineStr"/>
       <c r="U30" t="inlineStr"/>
       <c r="V30" t="inlineStr">
@@ -2331,7 +2319,11 @@
       <c r="O32" t="inlineStr"/>
       <c r="P32" t="inlineStr"/>
       <c r="Q32" t="inlineStr"/>
-      <c r="R32" t="inlineStr"/>
+      <c r="R32" t="inlineStr">
+        <is>
+          <t>6:00 AM START</t>
+        </is>
+      </c>
       <c r="S32" t="inlineStr"/>
       <c r="T32" t="inlineStr"/>
       <c r="U32" t="inlineStr"/>
@@ -2368,7 +2360,7 @@
       <c r="Q33" t="inlineStr"/>
       <c r="R33" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>SCAN-ITEM LEVE</t>
         </is>
       </c>
       <c r="S33" t="inlineStr"/>
@@ -2407,7 +2399,7 @@
       <c r="Q34" t="inlineStr"/>
       <c r="R34" t="inlineStr">
         <is>
-          <t>SCAN-ITEM LEVE</t>
+          <t>PICK #374, PEWAUKEE - CAPITOL DR</t>
         </is>
       </c>
       <c r="S34" t="inlineStr"/>
@@ -2454,7 +2446,7 @@
       <c r="Q35" t="inlineStr"/>
       <c r="R35" t="inlineStr">
         <is>
-          <t>PICK #374, PEWAUKEE - CAPITOL DR</t>
+          <t>1405 CAPITOL DRIVE</t>
         </is>
       </c>
       <c r="S35" t="inlineStr"/>
@@ -2501,7 +2493,7 @@
       <c r="Q36" t="inlineStr"/>
       <c r="R36" t="inlineStr">
         <is>
-          <t>1405 CAPITOL DRIVE</t>
+          <t>https://goo.gl/maps/fM2WtjtDye32</t>
         </is>
       </c>
       <c r="S36" t="inlineStr"/>
@@ -2548,7 +2540,7 @@
       <c r="Q37" t="inlineStr"/>
       <c r="R37" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/fM2WtjtDye32</t>
+          <t>SET UP ON REG #5</t>
         </is>
       </c>
       <c r="S37" t="inlineStr"/>
@@ -2589,11 +2581,7 @@
       <c r="O38" t="inlineStr"/>
       <c r="P38" t="inlineStr"/>
       <c r="Q38" t="inlineStr"/>
-      <c r="R38" t="inlineStr">
-        <is>
-          <t>SET UP ON REG #5</t>
-        </is>
-      </c>
+      <c r="R38" t="inlineStr"/>
       <c r="S38" t="inlineStr"/>
       <c r="T38" t="inlineStr"/>
       <c r="U38" t="inlineStr">
@@ -2639,9 +2627,21 @@
       <c r="N39" t="inlineStr"/>
       <c r="O39" t="inlineStr"/>
       <c r="P39" t="inlineStr"/>
-      <c r="Q39" t="inlineStr"/>
-      <c r="R39" t="inlineStr"/>
-      <c r="S39" t="inlineStr"/>
+      <c r="Q39" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="R39" t="inlineStr">
+        <is>
+          <t>Kim</t>
+        </is>
+      </c>
+      <c r="S39" t="inlineStr">
+        <is>
+          <t>Santa Fe available, Equip</t>
+        </is>
+      </c>
       <c r="T39" t="inlineStr"/>
       <c r="U39" t="inlineStr">
         <is>
@@ -2700,17 +2700,17 @@
       <c r="P40" t="inlineStr"/>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>Kim</t>
+          <t>Andrew</t>
         </is>
       </c>
       <c r="S40" t="inlineStr">
         <is>
-          <t>Santa Fe available, Equip</t>
+          <t>work w/ Leyna</t>
         </is>
       </c>
       <c r="T40" t="inlineStr"/>
@@ -2765,17 +2765,17 @@
       <c r="P41" t="inlineStr"/>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>Andrew</t>
+          <t>Carlie</t>
         </is>
       </c>
       <c r="S41" t="inlineStr">
         <is>
-          <t>work w/ Leyna</t>
+          <t>Trainer</t>
         </is>
       </c>
       <c r="T41" t="inlineStr"/>
@@ -2850,17 +2850,17 @@
       <c r="P42" t="inlineStr"/>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>Carlie</t>
+          <t>Celina</t>
         </is>
       </c>
       <c r="S42" t="inlineStr">
         <is>
-          <t>Trainer</t>
+          <t>work w/ Jerry D</t>
         </is>
       </c>
       <c r="T42" t="inlineStr"/>
@@ -2931,19 +2931,15 @@
       <c r="P43" t="inlineStr"/>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>Celina</t>
-        </is>
-      </c>
-      <c r="S43" t="inlineStr">
-        <is>
-          <t>work w/ Jerry D</t>
-        </is>
-      </c>
+          <t>Cynthia</t>
+        </is>
+      </c>
+      <c r="S43" t="inlineStr"/>
       <c r="T43" t="inlineStr"/>
       <c r="U43" t="inlineStr">
         <is>
@@ -3002,12 +2998,12 @@
       <c r="P44" t="inlineStr"/>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>Cynthia</t>
+          <t>DJ</t>
         </is>
       </c>
       <c r="S44" t="inlineStr"/>
@@ -3069,12 +3065,12 @@
       <c r="P45" t="inlineStr"/>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>DJ</t>
+          <t>Greg</t>
         </is>
       </c>
       <c r="S45" t="inlineStr"/>
@@ -3136,15 +3132,19 @@
       <c r="P46" t="inlineStr"/>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>Greg</t>
-        </is>
-      </c>
-      <c r="S46" t="inlineStr"/>
+          <t>Jerry D</t>
+        </is>
+      </c>
+      <c r="S46" t="inlineStr">
+        <is>
+          <t>Trainer</t>
+        </is>
+      </c>
       <c r="T46" t="inlineStr"/>
       <c r="U46" t="inlineStr">
         <is>
@@ -3207,19 +3207,15 @@
       <c r="P47" t="inlineStr"/>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>Jerry D</t>
-        </is>
-      </c>
-      <c r="S47" t="inlineStr">
-        <is>
-          <t>Trainer</t>
-        </is>
-      </c>
+          <t>Lexi</t>
+        </is>
+      </c>
+      <c r="S47" t="inlineStr"/>
       <c r="T47" t="inlineStr"/>
       <c r="U47" t="inlineStr"/>
       <c r="V47" t="inlineStr"/>
@@ -3275,15 +3271,19 @@
       <c r="P48" t="inlineStr"/>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="R48" t="inlineStr">
         <is>
-          <t>Lexi</t>
-        </is>
-      </c>
-      <c r="S48" t="inlineStr"/>
+          <t>Leyna</t>
+        </is>
+      </c>
+      <c r="S48" t="inlineStr">
+        <is>
+          <t>Trainer</t>
+        </is>
+      </c>
       <c r="T48" t="inlineStr"/>
       <c r="U48" t="inlineStr"/>
       <c r="V48" t="inlineStr"/>
@@ -3326,19 +3326,15 @@
       <c r="P49" t="inlineStr"/>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="R49" t="inlineStr">
         <is>
-          <t>Leyna</t>
-        </is>
-      </c>
-      <c r="S49" t="inlineStr">
-        <is>
-          <t>Trainer</t>
-        </is>
-      </c>
+          <t>Monica</t>
+        </is>
+      </c>
+      <c r="S49" t="inlineStr"/>
       <c r="T49" t="inlineStr"/>
       <c r="U49" t="inlineStr"/>
       <c r="V49" t="inlineStr">
@@ -3386,12 +3382,12 @@
       <c r="P50" t="inlineStr"/>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>12)</t>
         </is>
       </c>
       <c r="R50" t="inlineStr">
         <is>
-          <t>Monica</t>
+          <t>Pamela</t>
         </is>
       </c>
       <c r="S50" t="inlineStr"/>
@@ -3445,15 +3441,19 @@
       <c r="P51" t="inlineStr"/>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>13)</t>
         </is>
       </c>
       <c r="R51" t="inlineStr">
         <is>
-          <t>Pamela</t>
-        </is>
-      </c>
-      <c r="S51" t="inlineStr"/>
+          <t>Zakiyah</t>
+        </is>
+      </c>
+      <c r="S51" t="inlineStr">
+        <is>
+          <t>work w/ Carlie</t>
+        </is>
+      </c>
       <c r="T51" t="inlineStr"/>
       <c r="U51" t="inlineStr"/>
       <c r="V51" t="inlineStr">
@@ -3486,21 +3486,9 @@
       </c>
       <c r="O52" t="inlineStr"/>
       <c r="P52" t="inlineStr"/>
-      <c r="Q52" t="inlineStr">
-        <is>
-          <t>13)</t>
-        </is>
-      </c>
-      <c r="R52" t="inlineStr">
-        <is>
-          <t>Zakiyah</t>
-        </is>
-      </c>
-      <c r="S52" t="inlineStr">
-        <is>
-          <t>work w/ Carlie</t>
-        </is>
-      </c>
+      <c r="Q52" t="inlineStr"/>
+      <c r="R52" t="inlineStr"/>
+      <c r="S52" t="inlineStr"/>
       <c r="T52" t="inlineStr"/>
       <c r="U52" t="inlineStr"/>
       <c r="V52" t="inlineStr">
@@ -3590,7 +3578,11 @@
       <c r="O54" t="inlineStr"/>
       <c r="P54" t="inlineStr"/>
       <c r="Q54" t="inlineStr"/>
-      <c r="R54" t="inlineStr"/>
+      <c r="R54" t="inlineStr">
+        <is>
+          <t>6:00 AM OFFICE MEET</t>
+        </is>
+      </c>
       <c r="S54" t="inlineStr"/>
       <c r="T54" t="inlineStr"/>
       <c r="U54" t="inlineStr"/>
@@ -3640,7 +3632,7 @@
       <c r="Q55" t="inlineStr"/>
       <c r="R55" t="inlineStr">
         <is>
-          <t>6:00 AM OFFICE MEET</t>
+          <t>7:00 AM START</t>
         </is>
       </c>
       <c r="S55" t="inlineStr"/>
@@ -3687,7 +3679,7 @@
       <c r="Q56" t="inlineStr"/>
       <c r="R56" t="inlineStr">
         <is>
-          <t>7:00 AM START</t>
+          <t>MODAS-SCAN</t>
         </is>
       </c>
       <c r="S56" t="inlineStr"/>
@@ -3735,7 +3727,7 @@
       <c r="Q57" t="inlineStr"/>
       <c r="R57" t="inlineStr">
         <is>
-          <t>MODAS-SCAN</t>
+          <t>OPEN PANTRY #9570, RACINE</t>
         </is>
       </c>
       <c r="S57" t="inlineStr"/>
@@ -3794,7 +3786,7 @@
       <c r="Q58" t="inlineStr"/>
       <c r="R58" t="inlineStr">
         <is>
-          <t>OPEN PANTRY #9570, RACINE</t>
+          <t>2731 DURAND AVE</t>
         </is>
       </c>
       <c r="S58" t="inlineStr"/>
@@ -3850,7 +3842,7 @@
       <c r="Q59" t="inlineStr"/>
       <c r="R59" t="inlineStr">
         <is>
-          <t>2731 DURAND AVE</t>
+          <t>https://goo.gl/maps/boUkpED44a62</t>
         </is>
       </c>
       <c r="S59" t="inlineStr"/>
@@ -3903,11 +3895,7 @@
       <c r="O60" t="inlineStr"/>
       <c r="P60" t="inlineStr"/>
       <c r="Q60" t="inlineStr"/>
-      <c r="R60" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/boUkpED44a62</t>
-        </is>
-      </c>
+      <c r="R60" t="inlineStr"/>
       <c r="S60" t="inlineStr"/>
       <c r="T60" t="inlineStr"/>
       <c r="U60" t="inlineStr">
@@ -3953,9 +3941,21 @@
       <c r="N61" t="inlineStr"/>
       <c r="O61" t="inlineStr"/>
       <c r="P61" t="inlineStr"/>
-      <c r="Q61" t="inlineStr"/>
-      <c r="R61" t="inlineStr"/>
-      <c r="S61" t="inlineStr"/>
+      <c r="Q61" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="R61" t="inlineStr">
+        <is>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="S61" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="T61" t="inlineStr"/>
       <c r="U61" t="inlineStr">
         <is>
@@ -4011,17 +4011,18 @@
       <c r="P62" t="inlineStr"/>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="R62" t="inlineStr">
         <is>
-          <t>Katherine</t>
+          <t>Ian</t>
         </is>
       </c>
       <c r="S62" t="inlineStr">
         <is>
-          <t>Equip</t>
+          <t>Driver,
+Optima</t>
         </is>
       </c>
       <c r="T62" t="inlineStr"/>
@@ -4072,22 +4073,9 @@
       <c r="N63" t="inlineStr"/>
       <c r="O63" t="inlineStr"/>
       <c r="P63" t="inlineStr"/>
-      <c r="Q63" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="R63" t="inlineStr">
-        <is>
-          <t>Ian</t>
-        </is>
-      </c>
-      <c r="S63" t="inlineStr">
-        <is>
-          <t>Driver,
-Optima</t>
-        </is>
-      </c>
+      <c r="Q63" t="inlineStr"/>
+      <c r="R63" t="inlineStr"/>
+      <c r="S63" t="inlineStr"/>
       <c r="T63" t="inlineStr"/>
       <c r="U63" t="inlineStr"/>
       <c r="V63" t="inlineStr"/>
@@ -4160,7 +4148,11 @@
       <c r="O65" t="inlineStr"/>
       <c r="P65" t="inlineStr"/>
       <c r="Q65" t="inlineStr"/>
-      <c r="R65" t="inlineStr"/>
+      <c r="R65" t="inlineStr">
+        <is>
+          <t>6:00 AM START</t>
+        </is>
+      </c>
       <c r="S65" t="inlineStr"/>
       <c r="T65" t="inlineStr"/>
       <c r="U65" t="inlineStr"/>
@@ -4193,7 +4185,7 @@
       <c r="Q66" t="inlineStr"/>
       <c r="R66" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="S66" t="inlineStr"/>
@@ -4228,7 +4220,7 @@
       <c r="Q67" t="inlineStr"/>
       <c r="R67" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>FOX BROS PIGGLY WIGGLY #082, MAYVILLE</t>
         </is>
       </c>
       <c r="S67" t="inlineStr"/>
@@ -4263,7 +4255,7 @@
       <c r="Q68" t="inlineStr"/>
       <c r="R68" t="inlineStr">
         <is>
-          <t>FOX BROS PIGGLY WIGGLY #082, MAYVILLE</t>
+          <t>1440 HORICON ST</t>
         </is>
       </c>
       <c r="S68" t="inlineStr"/>
@@ -4298,7 +4290,7 @@
       <c r="Q69" t="inlineStr"/>
       <c r="R69" t="inlineStr">
         <is>
-          <t>1440 HORICON ST</t>
+          <t>https://maps.app.goo.gl/3nJCWDd6bxMw9Df6A</t>
         </is>
       </c>
       <c r="S69" t="inlineStr"/>
@@ -4331,11 +4323,7 @@
       <c r="O70" t="inlineStr"/>
       <c r="P70" t="inlineStr"/>
       <c r="Q70" t="inlineStr"/>
-      <c r="R70" t="inlineStr">
-        <is>
-          <t>https://maps.app.goo.gl/3nJCWDd6bxMw9Df6A</t>
-        </is>
-      </c>
+      <c r="R70" t="inlineStr"/>
       <c r="S70" t="inlineStr"/>
       <c r="T70" t="inlineStr"/>
       <c r="U70" t="inlineStr"/>
@@ -4365,9 +4353,21 @@
       <c r="N71" t="inlineStr"/>
       <c r="O71" t="inlineStr"/>
       <c r="P71" t="inlineStr"/>
-      <c r="Q71" t="inlineStr"/>
-      <c r="R71" t="inlineStr"/>
-      <c r="S71" t="inlineStr"/>
+      <c r="Q71" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="R71" t="inlineStr">
+        <is>
+          <t>Sarah</t>
+        </is>
+      </c>
+      <c r="S71" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="T71" t="inlineStr"/>
       <c r="U71" t="inlineStr"/>
       <c r="V71" t="inlineStr"/>
@@ -4394,17 +4394,17 @@
       <c r="P72" t="inlineStr"/>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="R72" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>Annette</t>
         </is>
       </c>
       <c r="S72" t="inlineStr">
         <is>
-          <t>@ Store, Equip</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="T72" t="inlineStr"/>
@@ -4445,12 +4445,12 @@
       <c r="P73" t="inlineStr"/>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="R73" t="inlineStr">
         <is>
-          <t>Annette</t>
+          <t>Ariel</t>
         </is>
       </c>
       <c r="S73" t="inlineStr">
@@ -4492,12 +4492,12 @@
       <c r="P74" t="inlineStr"/>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="R74" t="inlineStr">
         <is>
-          <t>Ariel</t>
+          <t xml:space="preserve">Dan </t>
         </is>
       </c>
       <c r="S74" t="inlineStr">
@@ -4544,12 +4544,12 @@
       <c r="P75" t="inlineStr"/>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="R75" t="inlineStr">
         <is>
-          <t xml:space="preserve">Dan </t>
+          <t>Katie</t>
         </is>
       </c>
       <c r="S75" t="inlineStr">
@@ -4595,12 +4595,12 @@
       <c r="P76" t="inlineStr"/>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="R76" t="inlineStr">
         <is>
-          <t>Katie</t>
+          <t>Lori</t>
         </is>
       </c>
       <c r="S76" t="inlineStr">
@@ -4646,12 +4646,12 @@
       <c r="P77" t="inlineStr"/>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="R77" t="inlineStr">
         <is>
-          <t>Lori</t>
+          <t>Madison</t>
         </is>
       </c>
       <c r="S77" t="inlineStr">
@@ -4697,12 +4697,12 @@
       <c r="P78" t="inlineStr"/>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="R78" t="inlineStr">
         <is>
-          <t>Madison</t>
+          <t>Michelle</t>
         </is>
       </c>
       <c r="S78" t="inlineStr">
@@ -4748,12 +4748,12 @@
       <c r="P79" t="inlineStr"/>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="R79" t="inlineStr">
         <is>
-          <t>Michelle</t>
+          <t>Nagui</t>
         </is>
       </c>
       <c r="S79" t="inlineStr">
@@ -4799,12 +4799,12 @@
       <c r="P80" t="inlineStr"/>
       <c r="Q80" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="R80" t="inlineStr">
         <is>
-          <t>Nagui</t>
+          <t>Taya</t>
         </is>
       </c>
       <c r="S80" t="inlineStr">
@@ -4850,12 +4850,12 @@
       <c r="P81" t="inlineStr"/>
       <c r="Q81" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="R81" t="inlineStr">
         <is>
-          <t>Taya</t>
+          <t>Terri</t>
         </is>
       </c>
       <c r="S81" t="inlineStr">
@@ -4899,21 +4899,9 @@
       <c r="N82" t="inlineStr"/>
       <c r="O82" t="inlineStr"/>
       <c r="P82" t="inlineStr"/>
-      <c r="Q82" t="inlineStr">
-        <is>
-          <t>11)</t>
-        </is>
-      </c>
-      <c r="R82" t="inlineStr">
-        <is>
-          <t>Terri</t>
-        </is>
-      </c>
-      <c r="S82" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="Q82" t="inlineStr"/>
+      <c r="R82" t="inlineStr"/>
+      <c r="S82" t="inlineStr"/>
       <c r="T82" t="inlineStr"/>
       <c r="U82" t="inlineStr"/>
       <c r="V82" t="inlineStr"/>

--- a/11-09-25 to 11-15-25 Milwaukee Schedule.xlsx
+++ b/11-09-25 to 11-15-25 Milwaukee Schedule.xlsx
@@ -3260,7 +3260,7 @@
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>Josh S</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="O48" t="inlineStr">

--- a/11-09-25 to 11-15-25 Milwaukee Schedule.xlsx
+++ b/11-09-25 to 11-15-25 Milwaukee Schedule.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y84"/>
+  <dimension ref="A1:Y83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2117,12 +2117,13 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Josh S</t>
+          <t>Justin Lee</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Supv Rx</t>
         </is>
       </c>
       <c r="L29" t="inlineStr"/>
@@ -2184,13 +2185,13 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
+          <t>Michael N</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
           <t>@ Store,
-Supv Rx</t>
+Rx</t>
         </is>
       </c>
       <c r="L30" t="inlineStr"/>
@@ -2249,13 +2250,12 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Michael N</t>
+          <t>Qiana</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>@ Store,
-Rx</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="L31" t="inlineStr"/>
@@ -2298,21 +2298,9 @@
         </is>
       </c>
       <c r="H32" t="inlineStr"/>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>17)</t>
-        </is>
-      </c>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>Qiana</t>
-        </is>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
       <c r="M32" t="inlineStr"/>
       <c r="N32" t="inlineStr"/>
@@ -2385,7 +2373,11 @@
       <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>5:30 AM BROWN DEER RD PARK AND RIDE</t>
+        </is>
+      </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
       <c r="M34" t="inlineStr"/>
@@ -2430,7 +2422,7 @@
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr">
         <is>
-          <t>5:30 AM BROWN DEER RD PARK AND RIDE</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="K35" t="inlineStr"/>
@@ -2477,7 +2469,7 @@
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="K36" t="inlineStr"/>
@@ -2524,7 +2516,7 @@
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>FOX BROS PIGGLY WIGGLY #088, SAUKVILLE</t>
         </is>
       </c>
       <c r="K37" t="inlineStr"/>
@@ -2567,7 +2559,7 @@
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr">
         <is>
-          <t>FOX BROS PIGGLY WIGGLY #088, SAUKVILLE</t>
+          <t>810 E GREEN BAY AVE</t>
         </is>
       </c>
       <c r="K38" t="inlineStr"/>
@@ -2618,7 +2610,7 @@
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr">
         <is>
-          <t>810 E GREEN BAY AVE</t>
+          <t>https://goo.gl/maps/eiMeyhHbpT82</t>
         </is>
       </c>
       <c r="K39" t="inlineStr"/>
@@ -2675,11 +2667,7 @@
       <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/eiMeyhHbpT82</t>
-        </is>
-      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
       <c r="M40" t="inlineStr">
@@ -2741,9 +2729,21 @@
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr"/>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>DJ</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="inlineStr">
         <is>
@@ -2822,17 +2822,18 @@
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>DJ</t>
+          <t>Carlie</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>@ Store, Equip</t>
+          <t>@ Store,
+Trainer</t>
         </is>
       </c>
       <c r="L42" t="inlineStr"/>
@@ -2902,18 +2903,17 @@
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Carlie</t>
+          <t>Celina</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>@ Store,
-Trainer</t>
+          <t>work w/ Jerry D</t>
         </is>
       </c>
       <c r="L43" t="inlineStr"/>
@@ -2966,19 +2966,15 @@
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>Celina</t>
-        </is>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>work w/ Jerry D</t>
-        </is>
-      </c>
+          <t>Cynthia</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr">
         <is>
@@ -3037,12 +3033,12 @@
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Cynthia</t>
+          <t>Greg</t>
         </is>
       </c>
       <c r="K45" t="inlineStr"/>
@@ -3104,15 +3100,19 @@
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Greg</t>
-        </is>
-      </c>
-      <c r="K46" t="inlineStr"/>
+          <t>Ian</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>@ Store, After Aurora</t>
+        </is>
+      </c>
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr">
         <is>
@@ -3175,17 +3175,18 @@
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>Ian</t>
+          <t>Jerry D</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>@ Store, After Aurora</t>
+          <t>Driver,
+Red Van</t>
         </is>
       </c>
       <c r="L47" t="inlineStr"/>
@@ -3238,18 +3239,17 @@
       <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>Monica</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>Driver,
-Red Van</t>
+          <t>@ Store, After Aurora</t>
         </is>
       </c>
       <c r="L48" t="inlineStr"/>
@@ -3306,17 +3306,18 @@
       <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>Monica</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>@ Store, After Aurora</t>
+          <t>@ Store,
+Until 12:30</t>
         </is>
       </c>
       <c r="L49" t="inlineStr"/>
@@ -3361,18 +3362,17 @@
       <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Sophia</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>@ Store,
-Until 12:30</t>
+          <t>work w/ Carlie</t>
         </is>
       </c>
       <c r="L50" t="inlineStr"/>
@@ -3415,21 +3415,9 @@
       </c>
       <c r="G51" t="inlineStr"/>
       <c r="H51" t="inlineStr"/>
-      <c r="I51" t="inlineStr">
-        <is>
-          <t>10)</t>
-        </is>
-      </c>
-      <c r="J51" t="inlineStr">
-        <is>
-          <t>Sophia</t>
-        </is>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>work w/ Carlie</t>
-        </is>
-      </c>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
       <c r="M51" t="inlineStr"/>
       <c r="N51" t="inlineStr">
@@ -3523,7 +3511,11 @@
       </c>
       <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>COURTESY MEET</t>
+        </is>
+      </c>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
       <c r="M53" t="inlineStr"/>
@@ -3568,7 +3560,7 @@
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr">
         <is>
-          <t>COURTESY MEET</t>
+          <t>5:30 AM MEET WATERTOWN PLANK</t>
         </is>
       </c>
       <c r="K54" t="inlineStr"/>
@@ -3620,7 +3612,7 @@
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr">
         <is>
-          <t>5:30 AM MEET WATERTOWN PLANK</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="K55" t="inlineStr"/>
@@ -3667,7 +3659,7 @@
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>MODAS-SCAN</t>
         </is>
       </c>
       <c r="K56" t="inlineStr"/>
@@ -3715,7 +3707,7 @@
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr">
         <is>
-          <t>MODAS-SCAN</t>
+          <t>AURORA OUTPATIENT RX #1122, HUBERTUS</t>
         </is>
       </c>
       <c r="K57" t="inlineStr"/>
@@ -3774,7 +3766,7 @@
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr">
         <is>
-          <t>AURORA OUTPATIENT RX #1122, HUBERTUS</t>
+          <t>3055 HUBERTUS RD</t>
         </is>
       </c>
       <c r="K58" t="inlineStr"/>
@@ -3830,7 +3822,7 @@
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr">
         <is>
-          <t>3055 HUBERTUS RD</t>
+          <t>https://maps.app.goo.gl/UGz9HK9discd2wyX6</t>
         </is>
       </c>
       <c r="K59" t="inlineStr"/>
@@ -3883,11 +3875,7 @@
       </c>
       <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr">
-        <is>
-          <t>https://maps.app.goo.gl/UGz9HK9discd2wyX6</t>
-        </is>
-      </c>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
       <c r="M60" t="inlineStr"/>
@@ -3933,9 +3921,22 @@
         </is>
       </c>
       <c r="H61" t="inlineStr"/>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>Ian</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>Driver,
+Optima, Equip</t>
+        </is>
+      </c>
       <c r="L61" t="inlineStr"/>
       <c r="M61" t="inlineStr"/>
       <c r="N61" t="inlineStr"/>
@@ -3990,20 +3991,15 @@
       <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>Ian</t>
-        </is>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>Driver,
-Optima, Equip</t>
-        </is>
-      </c>
+          <t>Monica</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
       <c r="M62" t="inlineStr"/>
       <c r="N62" t="inlineStr"/>
@@ -4057,16 +4053,8 @@
       </c>
       <c r="G63" t="inlineStr"/>
       <c r="H63" t="inlineStr"/>
-      <c r="I63" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="J63" t="inlineStr">
-        <is>
-          <t>Monica</t>
-        </is>
-      </c>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
       <c r="M63" t="inlineStr"/>
@@ -4140,7 +4128,11 @@
       </c>
       <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>4:45 AM MEET WATERTOWN PLANK</t>
+        </is>
+      </c>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
       <c r="M65" t="inlineStr"/>
@@ -4173,7 +4165,7 @@
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr">
         <is>
-          <t>4:45 AM MEET WATERTOWN PLANK</t>
+          <t>6:30 AM START</t>
         </is>
       </c>
       <c r="K66" t="inlineStr"/>
@@ -4208,7 +4200,7 @@
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr">
         <is>
-          <t>6:30 AM START</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="K67" t="inlineStr"/>
@@ -4243,7 +4235,7 @@
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>FESTIVAL #2741, KIMBERLY - LIFO</t>
         </is>
       </c>
       <c r="K68" t="inlineStr"/>
@@ -4278,7 +4270,7 @@
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr">
         <is>
-          <t>FESTIVAL #2741, KIMBERLY - LIFO</t>
+          <t>800 EAST MAES AVE</t>
         </is>
       </c>
       <c r="K69" t="inlineStr"/>
@@ -4313,7 +4305,7 @@
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr">
         <is>
-          <t>800 EAST MAES AVE</t>
+          <t>https://maps.app.goo.gl/kfzahrSKjQJjuiV29</t>
         </is>
       </c>
       <c r="K70" t="inlineStr"/>
@@ -4342,11 +4334,7 @@
       <c r="G71" t="inlineStr"/>
       <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr">
-        <is>
-          <t>https://maps.app.goo.gl/kfzahrSKjQJjuiV29</t>
-        </is>
-      </c>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
       <c r="M71" t="inlineStr"/>
@@ -4384,9 +4372,21 @@
       <c r="F72" t="inlineStr"/>
       <c r="G72" t="inlineStr"/>
       <c r="H72" t="inlineStr"/>
-      <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>Jeremiah</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="L72" t="inlineStr"/>
       <c r="M72" t="inlineStr"/>
       <c r="N72" t="inlineStr"/>
@@ -4425,19 +4425,15 @@
       <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>Jeremiah</t>
-        </is>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+          <t>Caitlin</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
       <c r="M73" t="inlineStr"/>
       <c r="N73" t="inlineStr"/>
@@ -4476,15 +4472,20 @@
       <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>Caitlin</t>
-        </is>
-      </c>
-      <c r="K74" t="inlineStr"/>
+          <t>Kim</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>Driver,
+Santa Fe</t>
+        </is>
+      </c>
       <c r="L74" t="inlineStr"/>
       <c r="M74" t="inlineStr"/>
       <c r="N74" t="inlineStr"/>
@@ -4523,18 +4524,17 @@
       <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>Kim</t>
+          <t xml:space="preserve">Dan </t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>Driver,
-Santa Fe</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="L75" t="inlineStr"/>
@@ -4575,12 +4575,12 @@
       <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t xml:space="preserve">Dan </t>
+          <t>Jerry S</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
@@ -4626,12 +4626,12 @@
       <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>Jerry S</t>
+          <t>Kirsten</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
@@ -4677,12 +4677,12 @@
       <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>Kirsten</t>
+          <t>Madison</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
@@ -4728,12 +4728,12 @@
       <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>Madison</t>
+          <t>Mai</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
@@ -4779,12 +4779,12 @@
       <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>Mai</t>
+          <t>Marcia</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
@@ -4830,12 +4830,12 @@
       <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>Marcia</t>
+          <t>Nagui</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
@@ -4881,12 +4881,12 @@
       <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>Nagui</t>
+          <t>Taya</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
@@ -4920,12 +4920,12 @@
       <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>12)</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>Taya</t>
+          <t>Terri</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
@@ -4948,45 +4948,6 @@
       <c r="X83" t="inlineStr"/>
       <c r="Y83" t="inlineStr"/>
     </row>
-    <row r="84">
-      <c r="A84" t="inlineStr"/>
-      <c r="B84" t="inlineStr"/>
-      <c r="C84" t="inlineStr"/>
-      <c r="D84" t="inlineStr"/>
-      <c r="E84" t="inlineStr"/>
-      <c r="F84" t="inlineStr"/>
-      <c r="G84" t="inlineStr"/>
-      <c r="H84" t="inlineStr"/>
-      <c r="I84" t="inlineStr">
-        <is>
-          <t>12)</t>
-        </is>
-      </c>
-      <c r="J84" t="inlineStr">
-        <is>
-          <t>Terri</t>
-        </is>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="inlineStr"/>
-      <c r="N84" t="inlineStr"/>
-      <c r="O84" t="inlineStr"/>
-      <c r="P84" t="inlineStr"/>
-      <c r="Q84" t="inlineStr"/>
-      <c r="R84" t="inlineStr"/>
-      <c r="S84" t="inlineStr"/>
-      <c r="T84" t="inlineStr"/>
-      <c r="U84" t="inlineStr"/>
-      <c r="V84" t="inlineStr"/>
-      <c r="W84" t="inlineStr"/>
-      <c r="X84" t="inlineStr"/>
-      <c r="Y84" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/11-09-25 to 11-15-25 Milwaukee Schedule.xlsx
+++ b/11-09-25 to 11-15-25 Milwaukee Schedule.xlsx
@@ -2105,7 +2105,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Greg</t>
+          <t>Cynthia</t>
         </is>
       </c>
       <c r="G29" t="inlineStr"/>
@@ -2173,7 +2173,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Monica</t>
+          <t>Greg</t>
         </is>
       </c>
       <c r="G30" t="inlineStr"/>
@@ -3651,10 +3651,15 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Cynthia</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr"/>
+          <t>DJ</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>Driver,
+Altima</t>
+        </is>
+      </c>
       <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr">
@@ -3694,13 +3699,12 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>DJ</t>
+          <t>Ian</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Driver,
-Altima</t>
+          <t>@ Store, After Aurora</t>
         </is>
       </c>
       <c r="H57" t="inlineStr"/>
@@ -3754,12 +3758,13 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Ian</t>
+          <t>Jerry D</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>@ Store, After Aurora</t>
+          <t>Driver,
+Red Van</t>
         </is>
       </c>
       <c r="H58" t="inlineStr"/>
@@ -3809,13 +3814,12 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>Lexi</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Driver,
-Red Van</t>
+          <t>@ Store, After Aurora</t>
         </is>
       </c>
       <c r="H59" t="inlineStr"/>
@@ -3865,12 +3869,12 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Lexi</t>
+          <t>Leyna</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>@ Store, After Aurora</t>
+          <t>Trainer</t>
         </is>
       </c>
       <c r="H60" t="inlineStr"/>
@@ -3912,14 +3916,10 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Leyna</t>
-        </is>
-      </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>Trainer</t>
-        </is>
-      </c>
+          <t>Monica</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr"/>
       <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr">
         <is>

--- a/11-09-25 to 11-15-25 Milwaukee Schedule.xlsx
+++ b/11-09-25 to 11-15-25 Milwaukee Schedule.xlsx
@@ -2493,7 +2493,7 @@
       <c r="U36" t="inlineStr"/>
       <c r="V36" t="inlineStr">
         <is>
-          <t>PARTIAL STORE-REMAPPED</t>
+          <t>FULL STORE-REMAPPED</t>
         </is>
       </c>
       <c r="W36" t="inlineStr"/>

--- a/11-09-25 to 11-15-25 Milwaukee Schedule.xlsx
+++ b/11-09-25 to 11-15-25 Milwaukee Schedule.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y83"/>
+  <dimension ref="A1:Y81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -742,7 +742,7 @@
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr">
         <is>
-          <t>4:15 AM MEET RYAN RD PNR (HWY 100 &amp; 94)</t>
+          <t>5:30 AM BROWN DEER RD PARK AND RIDE</t>
         </is>
       </c>
       <c r="K8" t="inlineStr"/>
@@ -836,7 +836,7 @@
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr">
         <is>
-          <t>SCAN-ITEM LEVEL</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="K10" t="inlineStr"/>
@@ -883,8 +883,7 @@
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr">
         <is>
-          <t>MARIANO'S #535 +RX, 
-ORLAND PARK</t>
+          <t>FOX BROS PIGGLY WIGGLY #088, SAUKVILLE</t>
         </is>
       </c>
       <c r="K11" t="inlineStr"/>
@@ -931,7 +930,7 @@
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr">
         <is>
-          <t>9504 142ND ST</t>
+          <t>810 E GREEN BAY AVE</t>
         </is>
       </c>
       <c r="K12" t="inlineStr"/>
@@ -974,7 +973,7 @@
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/x3S76RraqQ82</t>
+          <t>https://goo.gl/maps/eiMeyhHbpT82</t>
         </is>
       </c>
       <c r="K13" t="inlineStr"/>
@@ -1027,11 +1026,7 @@
       </c>
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>SET UP ON REG #1 OR 2</t>
-        </is>
-      </c>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr"/>
@@ -1081,9 +1076,21 @@
         </is>
       </c>
       <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>DJ</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr"/>
       <c r="N15" t="inlineStr">
@@ -1126,17 +1133,18 @@
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Nate</t>
+          <t>Carlie</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>@ Store, Equip</t>
+          <t>@ Store
+Trainer</t>
         </is>
       </c>
       <c r="L16" t="inlineStr"/>
@@ -1201,17 +1209,17 @@
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Andrew</t>
+          <t>Celina</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>work w/ Leyna</t>
+          <t>work w/ Jerry D</t>
         </is>
       </c>
       <c r="L17" t="inlineStr"/>
@@ -1280,19 +1288,15 @@
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Leyna</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>Trainer</t>
-        </is>
-      </c>
+          <t>Cynthia</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr">
         <is>
@@ -1352,15 +1356,19 @@
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Sonia</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr"/>
+          <t>Ian</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>@ Store, After Aurora</t>
+        </is>
+      </c>
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr">
         <is>
@@ -1411,18 +1419,18 @@
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Sue</t>
+          <t>Jerry D</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
           <t>Driver,
-Wht Camry</t>
+Santa Fe</t>
         </is>
       </c>
       <c r="L20" t="inlineStr"/>
@@ -1492,17 +1500,17 @@
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Angela</t>
+          <t>Monica</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store, After Aurora</t>
         </is>
       </c>
       <c r="L21" t="inlineStr"/>
@@ -1567,17 +1575,18 @@
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Anisha</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Until 12:30</t>
         </is>
       </c>
       <c r="L22" t="inlineStr"/>
@@ -1647,17 +1656,17 @@
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Ashley P</t>
+          <t>Sophia</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>work w/ Carlie</t>
         </is>
       </c>
       <c r="L23" t="inlineStr"/>
@@ -1727,12 +1736,12 @@
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Bri</t>
+          <t>Ashley P</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -1803,12 +1812,12 @@
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Elijah</t>
+          <t>Qiana</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -1872,21 +1881,9 @@
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr"/>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>11)</t>
-        </is>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>Emily L</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
       <c r="M26" t="inlineStr">
         <is>
@@ -1960,21 +1957,9 @@
         </is>
       </c>
       <c r="H27" t="inlineStr"/>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>12)</t>
-        </is>
-      </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>Eva</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
       <c r="M27" t="inlineStr">
         <is>
@@ -2043,21 +2028,13 @@
         </is>
       </c>
       <c r="H28" t="inlineStr"/>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>13)</t>
-        </is>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Joseph</t>
-        </is>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>COURTESY MEET</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
       <c r="M28" t="inlineStr">
         <is>
@@ -2110,22 +2087,13 @@
       </c>
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr"/>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>14)</t>
-        </is>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
-        </is>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>@ Store,
-Supv Rx</t>
-        </is>
-      </c>
+          <t>5:30 AM MEET WATERTOWN PLANK</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
       <c r="M29" t="inlineStr">
         <is>
@@ -2178,22 +2146,13 @@
       </c>
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr"/>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>15)</t>
-        </is>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr">
         <is>
-          <t>Michael N</t>
-        </is>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>@ Store,
-Rx</t>
-        </is>
-      </c>
+          <t>6:00 AM START</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
       <c r="M30" t="inlineStr">
         <is>
@@ -2243,21 +2202,13 @@
       </c>
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr"/>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>16)</t>
-        </is>
-      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Qiana</t>
-        </is>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>MODAS-SCAN</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
       <c r="M31" t="inlineStr"/>
       <c r="N31" t="inlineStr"/>
@@ -2299,7 +2250,11 @@
       </c>
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>AURORA OUTPATIENT RX #1122, HUBERTUS</t>
+        </is>
+      </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
       <c r="M32" t="inlineStr"/>
@@ -2334,7 +2289,11 @@
       <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>3055 HUBERTUS RD</t>
+        </is>
+      </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
       <c r="M33" t="inlineStr"/>
@@ -2375,7 +2334,7 @@
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr">
         <is>
-          <t>5:30 AM BROWN DEER RD PARK AND RIDE</t>
+          <t>https://maps.app.goo.gl/UGz9HK9discd2wyX6</t>
         </is>
       </c>
       <c r="K34" t="inlineStr"/>
@@ -2420,11 +2379,7 @@
       <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>6:00 AM START</t>
-        </is>
-      </c>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
       <c r="M35" t="inlineStr"/>
@@ -2466,13 +2421,22 @@
       </c>
       <c r="G36" t="inlineStr"/>
       <c r="H36" t="inlineStr"/>
-      <c r="I36" t="inlineStr"/>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
-        </is>
-      </c>
-      <c r="K36" t="inlineStr"/>
+          <t>Ian</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>Driver,
+Optima, Equip</t>
+        </is>
+      </c>
       <c r="L36" t="inlineStr"/>
       <c r="M36" t="inlineStr"/>
       <c r="N36" t="inlineStr">
@@ -2513,10 +2477,14 @@
       </c>
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr"/>
-      <c r="I37" t="inlineStr"/>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>FOX BROS PIGGLY WIGGLY #088, SAUKVILLE</t>
+          <t>Monica</t>
         </is>
       </c>
       <c r="K37" t="inlineStr"/>
@@ -2557,11 +2525,7 @@
       <c r="G38" t="inlineStr"/>
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t>810 E GREEN BAY AVE</t>
-        </is>
-      </c>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
       <c r="M38" t="inlineStr"/>
@@ -2608,11 +2572,7 @@
       <c r="G39" t="inlineStr"/>
       <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/eiMeyhHbpT82</t>
-        </is>
-      </c>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
       <c r="M39" t="inlineStr"/>
@@ -2667,7 +2627,11 @@
       <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>4:45 AM MEET WATERTOWN PLANK</t>
+        </is>
+      </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
       <c r="M40" t="inlineStr">
@@ -2729,21 +2693,13 @@
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr"/>
-      <c r="I41" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr">
         <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+          <t>6:30 AM START</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="inlineStr">
         <is>
@@ -2820,22 +2776,13 @@
         </is>
       </c>
       <c r="H42" t="inlineStr"/>
-      <c r="I42" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Carlie</t>
-        </is>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>@ Store,
-Trainer</t>
-        </is>
-      </c>
+          <t>DC5-FINANCIAL</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr">
         <is>
@@ -2844,7 +2791,7 @@
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>Cynthia</t>
+          <t>Monica</t>
         </is>
       </c>
       <c r="O42" t="inlineStr"/>
@@ -2901,21 +2848,13 @@
       </c>
       <c r="G43" t="inlineStr"/>
       <c r="H43" t="inlineStr"/>
-      <c r="I43" t="inlineStr">
-        <is>
-          <t>3)</t>
-        </is>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Celina</t>
-        </is>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>work w/ Jerry D</t>
-        </is>
-      </c>
+          <t>FESTIVAL #2741, KIMBERLY - LIFO</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
       <c r="M43" t="inlineStr">
         <is>
@@ -2924,10 +2863,14 @@
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>Monica</t>
-        </is>
-      </c>
-      <c r="O43" t="inlineStr"/>
+          <t>Zakiyah</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>work w/ Carlie</t>
+        </is>
+      </c>
       <c r="P43" t="inlineStr"/>
       <c r="Q43" t="inlineStr">
         <is>
@@ -2964,14 +2907,10 @@
       <c r="F44" t="inlineStr"/>
       <c r="G44" t="inlineStr"/>
       <c r="H44" t="inlineStr"/>
-      <c r="I44" t="inlineStr">
-        <is>
-          <t>4)</t>
-        </is>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr">
         <is>
-          <t>Cynthia</t>
+          <t>800 EAST MAES AVE</t>
         </is>
       </c>
       <c r="K44" t="inlineStr"/>
@@ -2983,12 +2922,12 @@
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>Zakiyah</t>
+          <t>Anisha</t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>work w/ Carlie</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="P44" t="inlineStr"/>
@@ -3031,14 +2970,10 @@
       <c r="F45" t="inlineStr"/>
       <c r="G45" t="inlineStr"/>
       <c r="H45" t="inlineStr"/>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>5)</t>
-        </is>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Greg</t>
+          <t>https://maps.app.goo.gl/kfzahrSKjQJjuiV29</t>
         </is>
       </c>
       <c r="K45" t="inlineStr"/>
@@ -3098,21 +3033,9 @@
       </c>
       <c r="G46" t="inlineStr"/>
       <c r="H46" t="inlineStr"/>
-      <c r="I46" t="inlineStr">
-        <is>
-          <t>6)</t>
-        </is>
-      </c>
-      <c r="J46" t="inlineStr">
-        <is>
-          <t>Ian</t>
-        </is>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>@ Store, After Aurora</t>
-        </is>
-      </c>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr">
         <is>
@@ -3121,7 +3044,7 @@
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>Anisha</t>
+          <t>Elijah</t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
@@ -3175,18 +3098,17 @@
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>Jeremiah</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>Driver,
-Red Van</t>
+          <t>@ Store, Equip</t>
         </is>
       </c>
       <c r="L47" t="inlineStr"/>
@@ -3197,7 +3119,7 @@
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>Elijah</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="O47" t="inlineStr">
@@ -3239,19 +3161,15 @@
       <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Monica</t>
-        </is>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>@ Store, After Aurora</t>
-        </is>
-      </c>
+          <t>Caitlin</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
       <c r="M48" t="inlineStr">
         <is>
@@ -3260,7 +3178,7 @@
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Justin Lee</t>
         </is>
       </c>
       <c r="O48" t="inlineStr">
@@ -3306,24 +3224,36 @@
       <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Kim</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>@ Store,
-Until 12:30</t>
+          <t>Driver,
+Red Van</t>
         </is>
       </c>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="inlineStr"/>
-      <c r="N49" t="inlineStr"/>
-      <c r="O49" t="inlineStr"/>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>10)</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>Nate</t>
+        </is>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="P49" t="inlineStr"/>
       <c r="Q49" t="inlineStr">
         <is>
@@ -3362,19 +3292,15 @@
       <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>Sophia</t>
-        </is>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>work w/ Carlie</t>
-        </is>
-      </c>
+          <t>Leyna</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr"/>
       <c r="N50" t="inlineStr"/>
@@ -3415,16 +3341,20 @@
       </c>
       <c r="G51" t="inlineStr"/>
       <c r="H51" t="inlineStr"/>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>5)</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>Sonia</t>
+        </is>
+      </c>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
       <c r="M51" t="inlineStr"/>
-      <c r="N51" t="inlineStr">
-        <is>
-          <t>Office</t>
-        </is>
-      </c>
+      <c r="N51" t="inlineStr"/>
       <c r="O51" t="inlineStr"/>
       <c r="P51" t="inlineStr"/>
       <c r="Q51" t="inlineStr">
@@ -3462,14 +3392,26 @@
       <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr"/>
       <c r="H52" t="inlineStr"/>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>6)</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>Bri</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="L52" t="inlineStr"/>
       <c r="M52" t="inlineStr"/>
       <c r="N52" t="inlineStr">
         <is>
-          <t>Kim</t>
+          <t>Office</t>
         </is>
       </c>
       <c r="O52" t="inlineStr"/>
@@ -3510,16 +3452,28 @@
         </is>
       </c>
       <c r="H53" t="inlineStr"/>
-      <c r="I53" t="inlineStr"/>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>7)</t>
+        </is>
+      </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>COURTESY MEET</t>
-        </is>
-      </c>
-      <c r="K53" t="inlineStr"/>
+          <t xml:space="preserve">Dan </t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="L53" t="inlineStr"/>
       <c r="M53" t="inlineStr"/>
-      <c r="N53" t="inlineStr"/>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>Kim</t>
+        </is>
+      </c>
       <c r="O53" t="inlineStr"/>
       <c r="P53" t="inlineStr"/>
       <c r="Q53" t="inlineStr"/>
@@ -3557,13 +3511,21 @@
         </is>
       </c>
       <c r="H54" t="inlineStr"/>
-      <c r="I54" t="inlineStr"/>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>8)</t>
+        </is>
+      </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>5:30 AM MEET WATERTOWN PLANK</t>
-        </is>
-      </c>
-      <c r="K54" t="inlineStr"/>
+          <t>Kirsten</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="L54" t="inlineStr"/>
       <c r="M54" t="inlineStr"/>
       <c r="N54" t="inlineStr"/>
@@ -3609,13 +3571,21 @@
         </is>
       </c>
       <c r="H55" t="inlineStr"/>
-      <c r="I55" t="inlineStr"/>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>9)</t>
+        </is>
+      </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
-        </is>
-      </c>
-      <c r="K55" t="inlineStr"/>
+          <t>Madison</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="L55" t="inlineStr"/>
       <c r="M55" t="inlineStr"/>
       <c r="N55" t="inlineStr"/>
@@ -3661,13 +3631,21 @@
         </is>
       </c>
       <c r="H56" t="inlineStr"/>
-      <c r="I56" t="inlineStr"/>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>10)</t>
+        </is>
+      </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>MODAS-SCAN</t>
-        </is>
-      </c>
-      <c r="K56" t="inlineStr"/>
+          <t>Mai</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="L56" t="inlineStr"/>
       <c r="M56" t="inlineStr"/>
       <c r="N56" t="inlineStr"/>
@@ -3708,13 +3686,21 @@
         </is>
       </c>
       <c r="H57" t="inlineStr"/>
-      <c r="I57" t="inlineStr"/>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>11)</t>
+        </is>
+      </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>AURORA OUTPATIENT RX #1122, HUBERTUS</t>
-        </is>
-      </c>
-      <c r="K57" t="inlineStr"/>
+          <t>Marcia</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="L57" t="inlineStr"/>
       <c r="M57" t="inlineStr"/>
       <c r="N57" t="inlineStr"/>
@@ -3768,13 +3754,21 @@
         </is>
       </c>
       <c r="H58" t="inlineStr"/>
-      <c r="I58" t="inlineStr"/>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>12)</t>
+        </is>
+      </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>3055 HUBERTUS RD</t>
-        </is>
-      </c>
-      <c r="K58" t="inlineStr"/>
+          <t>Nagui</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="L58" t="inlineStr"/>
       <c r="M58" t="inlineStr"/>
       <c r="N58" t="inlineStr"/>
@@ -3823,13 +3817,21 @@
         </is>
       </c>
       <c r="H59" t="inlineStr"/>
-      <c r="I59" t="inlineStr"/>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>13)</t>
+        </is>
+      </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>https://maps.app.goo.gl/UGz9HK9discd2wyX6</t>
-        </is>
-      </c>
-      <c r="K59" t="inlineStr"/>
+          <t>Taya</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="L59" t="inlineStr"/>
       <c r="M59" t="inlineStr"/>
       <c r="N59" t="inlineStr"/>
@@ -3878,9 +3880,21 @@
         </is>
       </c>
       <c r="H60" t="inlineStr"/>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>14)</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>Terri</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="L60" t="inlineStr"/>
       <c r="M60" t="inlineStr"/>
       <c r="N60" t="inlineStr"/>
@@ -3921,22 +3935,9 @@
       </c>
       <c r="G61" t="inlineStr"/>
       <c r="H61" t="inlineStr"/>
-      <c r="I61" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="J61" t="inlineStr">
-        <is>
-          <t>Ian</t>
-        </is>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>Driver,
-Optima, Equip</t>
-        </is>
-      </c>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
       <c r="M61" t="inlineStr"/>
       <c r="N61" t="inlineStr"/>
@@ -3989,16 +3990,8 @@
       </c>
       <c r="G62" t="inlineStr"/>
       <c r="H62" t="inlineStr"/>
-      <c r="I62" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="J62" t="inlineStr">
-        <is>
-          <t>Monica</t>
-        </is>
-      </c>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
       <c r="M62" t="inlineStr"/>
@@ -4128,11 +4121,7 @@
       </c>
       <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr">
-        <is>
-          <t>4:45 AM MEET WATERTOWN PLANK</t>
-        </is>
-      </c>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
       <c r="M65" t="inlineStr"/>
@@ -4163,11 +4152,7 @@
       <c r="G66" t="inlineStr"/>
       <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr">
-        <is>
-          <t>6:30 AM START</t>
-        </is>
-      </c>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
       <c r="M66" t="inlineStr"/>
@@ -4198,11 +4183,7 @@
       <c r="G67" t="inlineStr"/>
       <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr">
-        <is>
-          <t>DC5-FINANCIAL</t>
-        </is>
-      </c>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
       <c r="M67" t="inlineStr"/>
@@ -4233,11 +4214,7 @@
       <c r="G68" t="inlineStr"/>
       <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr">
-        <is>
-          <t>FESTIVAL #2741, KIMBERLY - LIFO</t>
-        </is>
-      </c>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
       <c r="M68" t="inlineStr"/>
@@ -4268,11 +4245,7 @@
       <c r="G69" t="inlineStr"/>
       <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr">
-        <is>
-          <t>800 EAST MAES AVE</t>
-        </is>
-      </c>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
       <c r="M69" t="inlineStr"/>
@@ -4303,11 +4276,7 @@
       <c r="G70" t="inlineStr"/>
       <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr">
-        <is>
-          <t>https://maps.app.goo.gl/kfzahrSKjQJjuiV29</t>
-        </is>
-      </c>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
       <c r="M70" t="inlineStr"/>
@@ -4372,21 +4341,9 @@
       <c r="F72" t="inlineStr"/>
       <c r="G72" t="inlineStr"/>
       <c r="H72" t="inlineStr"/>
-      <c r="I72" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="J72" t="inlineStr">
-        <is>
-          <t>Jeremiah</t>
-        </is>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
       <c r="M72" t="inlineStr"/>
       <c r="N72" t="inlineStr"/>
@@ -4423,16 +4380,8 @@
       <c r="F73" t="inlineStr"/>
       <c r="G73" t="inlineStr"/>
       <c r="H73" t="inlineStr"/>
-      <c r="I73" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="J73" t="inlineStr">
-        <is>
-          <t>Caitlin</t>
-        </is>
-      </c>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
       <c r="M73" t="inlineStr"/>
@@ -4470,22 +4419,9 @@
       <c r="F74" t="inlineStr"/>
       <c r="G74" t="inlineStr"/>
       <c r="H74" t="inlineStr"/>
-      <c r="I74" t="inlineStr">
-        <is>
-          <t>3)</t>
-        </is>
-      </c>
-      <c r="J74" t="inlineStr">
-        <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>Driver,
-Santa Fe</t>
-        </is>
-      </c>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
       <c r="M74" t="inlineStr"/>
       <c r="N74" t="inlineStr"/>
@@ -4522,21 +4458,9 @@
       <c r="F75" t="inlineStr"/>
       <c r="G75" t="inlineStr"/>
       <c r="H75" t="inlineStr"/>
-      <c r="I75" t="inlineStr">
-        <is>
-          <t>4)</t>
-        </is>
-      </c>
-      <c r="J75" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dan </t>
-        </is>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
       <c r="M75" t="inlineStr"/>
       <c r="N75" t="inlineStr"/>
@@ -4573,21 +4497,9 @@
       <c r="F76" t="inlineStr"/>
       <c r="G76" t="inlineStr"/>
       <c r="H76" t="inlineStr"/>
-      <c r="I76" t="inlineStr">
-        <is>
-          <t>5)</t>
-        </is>
-      </c>
-      <c r="J76" t="inlineStr">
-        <is>
-          <t>Jerry S</t>
-        </is>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
       <c r="M76" t="inlineStr"/>
       <c r="N76" t="inlineStr"/>
@@ -4624,21 +4536,9 @@
       <c r="F77" t="inlineStr"/>
       <c r="G77" t="inlineStr"/>
       <c r="H77" t="inlineStr"/>
-      <c r="I77" t="inlineStr">
-        <is>
-          <t>6)</t>
-        </is>
-      </c>
-      <c r="J77" t="inlineStr">
-        <is>
-          <t>Kirsten</t>
-        </is>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
       <c r="M77" t="inlineStr"/>
       <c r="N77" t="inlineStr"/>
@@ -4675,21 +4575,9 @@
       <c r="F78" t="inlineStr"/>
       <c r="G78" t="inlineStr"/>
       <c r="H78" t="inlineStr"/>
-      <c r="I78" t="inlineStr">
-        <is>
-          <t>7)</t>
-        </is>
-      </c>
-      <c r="J78" t="inlineStr">
-        <is>
-          <t>Madison</t>
-        </is>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
       <c r="M78" t="inlineStr"/>
       <c r="N78" t="inlineStr"/>
@@ -4726,21 +4614,9 @@
       <c r="F79" t="inlineStr"/>
       <c r="G79" t="inlineStr"/>
       <c r="H79" t="inlineStr"/>
-      <c r="I79" t="inlineStr">
-        <is>
-          <t>8)</t>
-        </is>
-      </c>
-      <c r="J79" t="inlineStr">
-        <is>
-          <t>Mai</t>
-        </is>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
       <c r="M79" t="inlineStr"/>
       <c r="N79" t="inlineStr"/>
@@ -4777,21 +4653,9 @@
       <c r="F80" t="inlineStr"/>
       <c r="G80" t="inlineStr"/>
       <c r="H80" t="inlineStr"/>
-      <c r="I80" t="inlineStr">
-        <is>
-          <t>9)</t>
-        </is>
-      </c>
-      <c r="J80" t="inlineStr">
-        <is>
-          <t>Marcia</t>
-        </is>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
       <c r="M80" t="inlineStr"/>
       <c r="N80" t="inlineStr"/>
@@ -4828,21 +4692,9 @@
       <c r="F81" t="inlineStr"/>
       <c r="G81" t="inlineStr"/>
       <c r="H81" t="inlineStr"/>
-      <c r="I81" t="inlineStr">
-        <is>
-          <t>10)</t>
-        </is>
-      </c>
-      <c r="J81" t="inlineStr">
-        <is>
-          <t>Nagui</t>
-        </is>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
       <c r="M81" t="inlineStr"/>
       <c r="N81" t="inlineStr"/>
@@ -4870,84 +4722,6 @@
       <c r="X81" t="inlineStr"/>
       <c r="Y81" t="inlineStr"/>
     </row>
-    <row r="82">
-      <c r="A82" t="inlineStr"/>
-      <c r="B82" t="inlineStr"/>
-      <c r="C82" t="inlineStr"/>
-      <c r="D82" t="inlineStr"/>
-      <c r="E82" t="inlineStr"/>
-      <c r="F82" t="inlineStr"/>
-      <c r="G82" t="inlineStr"/>
-      <c r="H82" t="inlineStr"/>
-      <c r="I82" t="inlineStr">
-        <is>
-          <t>11)</t>
-        </is>
-      </c>
-      <c r="J82" t="inlineStr">
-        <is>
-          <t>Taya</t>
-        </is>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="inlineStr"/>
-      <c r="N82" t="inlineStr"/>
-      <c r="O82" t="inlineStr"/>
-      <c r="P82" t="inlineStr"/>
-      <c r="Q82" t="inlineStr"/>
-      <c r="R82" t="inlineStr"/>
-      <c r="S82" t="inlineStr"/>
-      <c r="T82" t="inlineStr"/>
-      <c r="U82" t="inlineStr"/>
-      <c r="V82" t="inlineStr"/>
-      <c r="W82" t="inlineStr"/>
-      <c r="X82" t="inlineStr"/>
-      <c r="Y82" t="inlineStr"/>
-    </row>
-    <row r="83">
-      <c r="A83" t="inlineStr"/>
-      <c r="B83" t="inlineStr"/>
-      <c r="C83" t="inlineStr"/>
-      <c r="D83" t="inlineStr"/>
-      <c r="E83" t="inlineStr"/>
-      <c r="F83" t="inlineStr"/>
-      <c r="G83" t="inlineStr"/>
-      <c r="H83" t="inlineStr"/>
-      <c r="I83" t="inlineStr">
-        <is>
-          <t>12)</t>
-        </is>
-      </c>
-      <c r="J83" t="inlineStr">
-        <is>
-          <t>Terri</t>
-        </is>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="inlineStr"/>
-      <c r="N83" t="inlineStr"/>
-      <c r="O83" t="inlineStr"/>
-      <c r="P83" t="inlineStr"/>
-      <c r="Q83" t="inlineStr"/>
-      <c r="R83" t="inlineStr"/>
-      <c r="S83" t="inlineStr"/>
-      <c r="T83" t="inlineStr"/>
-      <c r="U83" t="inlineStr"/>
-      <c r="V83" t="inlineStr"/>
-      <c r="W83" t="inlineStr"/>
-      <c r="X83" t="inlineStr"/>
-      <c r="Y83" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/11-09-25 to 11-15-25 Milwaukee Schedule.xlsx
+++ b/11-09-25 to 11-15-25 Milwaukee Schedule.xlsx
@@ -686,7 +686,11 @@
       <c r="O6" t="inlineStr"/>
       <c r="P6" t="inlineStr"/>
       <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="inlineStr"/>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>Red Van oil change this day</t>
+        </is>
+      </c>
       <c r="S6" t="inlineStr"/>
       <c r="T6" t="inlineStr"/>
       <c r="U6" t="inlineStr"/>
@@ -1430,7 +1434,7 @@
       <c r="K20" t="inlineStr">
         <is>
           <t>Driver,
-Santa Fe</t>
+Red Van</t>
         </is>
       </c>
       <c r="L20" t="inlineStr"/>
@@ -3235,7 +3239,7 @@
       <c r="K49" t="inlineStr">
         <is>
           <t>Driver,
-Red Van</t>
+Santa Fe</t>
         </is>
       </c>
       <c r="L49" t="inlineStr"/>

--- a/11-09-25 to 11-15-25 Milwaukee Schedule.xlsx
+++ b/11-09-25 to 11-15-25 Milwaukee Schedule.xlsx
@@ -911,7 +911,7 @@
       <c r="U11" t="inlineStr"/>
       <c r="V11" t="inlineStr">
         <is>
-          <t>MARIANO'S #537 +RX, NAPERVILLE</t>
+          <t>MARIANO'S #537, NAPERVILLE</t>
         </is>
       </c>
       <c r="W11" t="inlineStr"/>
@@ -1109,7 +1109,11 @@
       <c r="S15" t="inlineStr"/>
       <c r="T15" t="inlineStr"/>
       <c r="U15" t="inlineStr"/>
-      <c r="V15" t="inlineStr"/>
+      <c r="V15" t="inlineStr">
+        <is>
+          <t>NO RX COUNT FOR THIS INVENTORY</t>
+        </is>
+      </c>
       <c r="W15" t="inlineStr"/>
       <c r="X15" t="inlineStr"/>
       <c r="Y15" t="inlineStr"/>
@@ -1172,21 +1176,9 @@
         </is>
       </c>
       <c r="T16" t="inlineStr"/>
-      <c r="U16" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="V16" t="inlineStr">
-        <is>
-          <t>Nate</t>
-        </is>
-      </c>
-      <c r="W16" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+      <c r="U16" t="inlineStr"/>
+      <c r="V16" t="inlineStr"/>
+      <c r="W16" t="inlineStr"/>
       <c r="X16" t="inlineStr"/>
       <c r="Y16" t="inlineStr"/>
     </row>
@@ -1257,15 +1249,19 @@
       <c r="T17" t="inlineStr"/>
       <c r="U17" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>Greg</t>
-        </is>
-      </c>
-      <c r="W17" t="inlineStr"/>
+          <t>Nate</t>
+        </is>
+      </c>
+      <c r="W17" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="X17" t="inlineStr"/>
       <c r="Y17" t="inlineStr"/>
     </row>
@@ -1332,20 +1328,15 @@
       <c r="T18" t="inlineStr"/>
       <c r="U18" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>Ian</t>
-        </is>
-      </c>
-      <c r="W18" t="inlineStr">
-        <is>
-          <t>Driver,
-Wht Camry</t>
-        </is>
-      </c>
+          <t>Greg</t>
+        </is>
+      </c>
+      <c r="W18" t="inlineStr"/>
       <c r="X18" t="inlineStr"/>
       <c r="Y18" t="inlineStr"/>
     </row>
@@ -1400,15 +1391,20 @@
       <c r="T19" t="inlineStr"/>
       <c r="U19" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>Pamela</t>
-        </is>
-      </c>
-      <c r="W19" t="inlineStr"/>
+          <t>Ian</t>
+        </is>
+      </c>
+      <c r="W19" t="inlineStr">
+        <is>
+          <t>Driver,
+Wht Camry</t>
+        </is>
+      </c>
       <c r="X19" t="inlineStr"/>
       <c r="Y19" t="inlineStr"/>
     </row>
@@ -1473,19 +1469,15 @@
       <c r="T20" t="inlineStr"/>
       <c r="U20" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>Zakiyah</t>
-        </is>
-      </c>
-      <c r="W20" t="inlineStr">
-        <is>
-          <t>work w/ Qiana</t>
-        </is>
-      </c>
+          <t>Pamela</t>
+        </is>
+      </c>
+      <c r="W20" t="inlineStr"/>
       <c r="X20" t="inlineStr"/>
       <c r="Y20" t="inlineStr"/>
     </row>
@@ -1548,17 +1540,17 @@
       <c r="T21" t="inlineStr"/>
       <c r="U21" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>Angela</t>
+          <t>Zakiyah</t>
         </is>
       </c>
       <c r="W21" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>work w/ Qiana</t>
         </is>
       </c>
       <c r="X21" t="inlineStr"/>
@@ -1629,12 +1621,12 @@
       <c r="T22" t="inlineStr"/>
       <c r="U22" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>Anisha</t>
+          <t>Angela</t>
         </is>
       </c>
       <c r="W22" t="inlineStr">
@@ -1709,12 +1701,12 @@
       <c r="T23" t="inlineStr"/>
       <c r="U23" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>Elijah</t>
+          <t>Anisha</t>
         </is>
       </c>
       <c r="W23" t="inlineStr">
@@ -1784,18 +1776,17 @@
       <c r="T24" t="inlineStr"/>
       <c r="U24" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>Eva</t>
+          <t>Elijah</t>
         </is>
       </c>
       <c r="W24" t="inlineStr">
         <is>
-          <t>@ Store,
-Rx</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="X24" t="inlineStr"/>
@@ -1860,12 +1851,12 @@
       <c r="T25" t="inlineStr"/>
       <c r="U25" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="W25" t="inlineStr">
@@ -1923,18 +1914,17 @@
       <c r="T26" t="inlineStr"/>
       <c r="U26" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="W26" t="inlineStr">
         <is>
-          <t>@ Store,
-Supv Rx</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="X26" t="inlineStr"/>
@@ -1995,12 +1985,12 @@
       <c r="T27" t="inlineStr"/>
       <c r="U27" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>Qiana</t>
+          <t>Justin Lee</t>
         </is>
       </c>
       <c r="W27" t="inlineStr">
@@ -2068,9 +2058,21 @@
         </is>
       </c>
       <c r="T28" t="inlineStr"/>
-      <c r="U28" t="inlineStr"/>
-      <c r="V28" t="inlineStr"/>
-      <c r="W28" t="inlineStr"/>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>12)</t>
+        </is>
+      </c>
+      <c r="V28" t="inlineStr">
+        <is>
+          <t>Qiana</t>
+        </is>
+      </c>
+      <c r="W28" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="X28" t="inlineStr"/>
       <c r="Y28" t="inlineStr"/>
     </row>
@@ -2180,11 +2182,7 @@
       <c r="S30" t="inlineStr"/>
       <c r="T30" t="inlineStr"/>
       <c r="U30" t="inlineStr"/>
-      <c r="V30" t="inlineStr">
-        <is>
-          <t>4:45 AM BROWN DEER RD PARK AND RIDE</t>
-        </is>
-      </c>
+      <c r="V30" t="inlineStr"/>
       <c r="W30" t="inlineStr"/>
       <c r="X30" t="inlineStr"/>
       <c r="Y30" t="inlineStr"/>
@@ -2225,7 +2223,7 @@
       <c r="U31" t="inlineStr"/>
       <c r="V31" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>4:45 AM BROWN DEER RD PARK AND RIDE</t>
         </is>
       </c>
       <c r="W31" t="inlineStr"/>
@@ -2276,7 +2274,7 @@
       <c r="U32" t="inlineStr"/>
       <c r="V32" t="inlineStr">
         <is>
-          <t>SCAN-ITEM LEVEL</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="W32" t="inlineStr"/>
@@ -2319,7 +2317,7 @@
       <c r="U33" t="inlineStr"/>
       <c r="V33" t="inlineStr">
         <is>
-          <t>PICK #408, TWO RIVERS</t>
+          <t>SCAN-ITEM LEVEL</t>
         </is>
       </c>
       <c r="W33" t="inlineStr"/>
@@ -2362,7 +2360,7 @@
       <c r="U34" t="inlineStr"/>
       <c r="V34" t="inlineStr">
         <is>
-          <t>1010 22ND STREET</t>
+          <t>PICK #408, TWO RIVERS</t>
         </is>
       </c>
       <c r="W34" t="inlineStr"/>
@@ -2405,7 +2403,7 @@
       <c r="U35" t="inlineStr"/>
       <c r="V35" t="inlineStr">
         <is>
-          <t>https://maps.app.goo.gl/5jsT8sqpo6yELUmX9</t>
+          <t>1010 22ND STREET</t>
         </is>
       </c>
       <c r="W35" t="inlineStr"/>
@@ -2461,7 +2459,7 @@
       <c r="U36" t="inlineStr"/>
       <c r="V36" t="inlineStr">
         <is>
-          <t>FULL STORE-REMAPPED</t>
+          <t>https://maps.app.goo.gl/5jsT8sqpo6yELUmX9</t>
         </is>
       </c>
       <c r="W36" t="inlineStr"/>
@@ -2510,7 +2508,11 @@
       <c r="S37" t="inlineStr"/>
       <c r="T37" t="inlineStr"/>
       <c r="U37" t="inlineStr"/>
-      <c r="V37" t="inlineStr"/>
+      <c r="V37" t="inlineStr">
+        <is>
+          <t>FULL STORE-REMAPPED</t>
+        </is>
+      </c>
       <c r="W37" t="inlineStr"/>
       <c r="X37" t="inlineStr"/>
       <c r="Y37" t="inlineStr"/>
@@ -2544,21 +2546,9 @@
       <c r="R38" t="inlineStr"/>
       <c r="S38" t="inlineStr"/>
       <c r="T38" t="inlineStr"/>
-      <c r="U38" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="V38" t="inlineStr">
-        <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="W38" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+      <c r="U38" t="inlineStr"/>
+      <c r="V38" t="inlineStr"/>
+      <c r="W38" t="inlineStr"/>
       <c r="X38" t="inlineStr"/>
       <c r="Y38" t="inlineStr"/>
     </row>
@@ -2601,17 +2591,17 @@
       <c r="T39" t="inlineStr"/>
       <c r="U39" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>Andrew</t>
+          <t>DJ</t>
         </is>
       </c>
       <c r="W39" t="inlineStr">
         <is>
-          <t>work w/ Leyna</t>
+          <t>@ Store, Equip</t>
         </is>
       </c>
       <c r="X39" t="inlineStr"/>
@@ -2672,12 +2662,12 @@
       <c r="T40" t="inlineStr"/>
       <c r="U40" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>Celina</t>
+          <t>Andrew</t>
         </is>
       </c>
       <c r="W40" t="inlineStr">
@@ -2741,18 +2731,17 @@
       <c r="T41" t="inlineStr"/>
       <c r="U41" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>Celina</t>
         </is>
       </c>
       <c r="W41" t="inlineStr">
         <is>
-          <t>Driver,
-Red Van</t>
+          <t>work w/ Leyna</t>
         </is>
       </c>
       <c r="X41" t="inlineStr"/>
@@ -2818,18 +2807,18 @@
       <c r="T42" t="inlineStr"/>
       <c r="U42" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>Kim</t>
+          <t>Jerry D</t>
         </is>
       </c>
       <c r="W42" t="inlineStr">
         <is>
           <t>Driver,
-Santa Fe</t>
+Red Van</t>
         </is>
       </c>
       <c r="X42" t="inlineStr"/>
@@ -2890,15 +2879,20 @@
       <c r="T43" t="inlineStr"/>
       <c r="U43" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>Lexi</t>
-        </is>
-      </c>
-      <c r="W43" t="inlineStr"/>
+          <t>Kim</t>
+        </is>
+      </c>
+      <c r="W43" t="inlineStr">
+        <is>
+          <t>Driver,
+Santa Fe</t>
+        </is>
+      </c>
       <c r="X43" t="inlineStr"/>
       <c r="Y43" t="inlineStr"/>
     </row>
@@ -2949,19 +2943,15 @@
       <c r="T44" t="inlineStr"/>
       <c r="U44" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>Leyna</t>
-        </is>
-      </c>
-      <c r="W44" t="inlineStr">
-        <is>
-          <t>Trainer</t>
-        </is>
-      </c>
+          <t>Lexi</t>
+        </is>
+      </c>
+      <c r="W44" t="inlineStr"/>
       <c r="X44" t="inlineStr"/>
       <c r="Y44" t="inlineStr"/>
     </row>
@@ -3012,15 +3002,19 @@
       <c r="T45" t="inlineStr"/>
       <c r="U45" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>Sophia</t>
-        </is>
-      </c>
-      <c r="W45" t="inlineStr"/>
+          <t>Leyna</t>
+        </is>
+      </c>
+      <c r="W45" t="inlineStr">
+        <is>
+          <t>Trainer</t>
+        </is>
+      </c>
       <c r="X45" t="inlineStr"/>
       <c r="Y45" t="inlineStr"/>
     </row>
@@ -3075,12 +3069,12 @@
       <c r="T46" t="inlineStr"/>
       <c r="U46" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Sophia</t>
         </is>
       </c>
       <c r="W46" t="inlineStr"/>
@@ -3144,8 +3138,16 @@
       </c>
       <c r="S47" t="inlineStr"/>
       <c r="T47" t="inlineStr"/>
-      <c r="U47" t="inlineStr"/>
-      <c r="V47" t="inlineStr"/>
+      <c r="U47" t="inlineStr">
+        <is>
+          <t>9)</t>
+        </is>
+      </c>
+      <c r="V47" t="inlineStr">
+        <is>
+          <t>Sonia</t>
+        </is>
+      </c>
       <c r="W47" t="inlineStr"/>
       <c r="X47" t="inlineStr"/>
       <c r="Y47" t="inlineStr"/>
@@ -3272,11 +3274,7 @@
       <c r="S49" t="inlineStr"/>
       <c r="T49" t="inlineStr"/>
       <c r="U49" t="inlineStr"/>
-      <c r="V49" t="inlineStr">
-        <is>
-          <t>5:45 AM START</t>
-        </is>
-      </c>
+      <c r="V49" t="inlineStr"/>
       <c r="W49" t="inlineStr"/>
       <c r="X49" t="inlineStr"/>
       <c r="Y49" t="inlineStr"/>
@@ -3325,7 +3323,7 @@
       <c r="U50" t="inlineStr"/>
       <c r="V50" t="inlineStr">
         <is>
-          <t>MODAS-SCAN</t>
+          <t>5:45 AM START</t>
         </is>
       </c>
       <c r="W50" t="inlineStr"/>
@@ -3380,7 +3378,7 @@
       <c r="U51" t="inlineStr"/>
       <c r="V51" t="inlineStr">
         <is>
-          <t>ASCENSION IP CSMM COLUMBIA ST MARY'S WOMEN'S MEDICAL CENTER</t>
+          <t>MODAS-SCAN</t>
         </is>
       </c>
       <c r="W51" t="inlineStr"/>
@@ -3427,7 +3425,7 @@
       <c r="U52" t="inlineStr"/>
       <c r="V52" t="inlineStr">
         <is>
-          <t>2323 N LAKE DR</t>
+          <t>ASCENSION IP CSMM COLUMBIA ST MARY'S WOMEN'S MEDICAL CENTER</t>
         </is>
       </c>
       <c r="W52" t="inlineStr"/>
@@ -3487,7 +3485,7 @@
       <c r="U53" t="inlineStr"/>
       <c r="V53" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/86sUJVyjHnUKr7tv8</t>
+          <t>2323 N LAKE DR</t>
         </is>
       </c>
       <c r="W53" t="inlineStr"/>
@@ -3546,8 +3544,7 @@
       <c r="U54" t="inlineStr"/>
       <c r="V54" t="inlineStr">
         <is>
-          <t>PARK IN PARKING STRUCTURE B AND MEET IN THE LOBBY
-**BRING BACKUP DC5S**</t>
+          <t>https://goo.gl/maps/86sUJVyjHnUKr7tv8</t>
         </is>
       </c>
       <c r="W54" t="inlineStr"/>
@@ -3606,7 +3603,8 @@
       <c r="U55" t="inlineStr"/>
       <c r="V55" t="inlineStr">
         <is>
-          <t>Timesheet totals - split Regular location total under Floor - Chemo under Backroom.</t>
+          <t>PARK IN PARKING STRUCTURE B AND MEET IN THE LOBBY
+**BRING BACKUP DC5S**</t>
         </is>
       </c>
       <c r="W55" t="inlineStr"/>
@@ -3664,7 +3662,11 @@
       <c r="S56" t="inlineStr"/>
       <c r="T56" t="inlineStr"/>
       <c r="U56" t="inlineStr"/>
-      <c r="V56" t="inlineStr"/>
+      <c r="V56" t="inlineStr">
+        <is>
+          <t>Timesheet totals - split Regular location total under Floor - Chemo under Backroom.</t>
+        </is>
+      </c>
       <c r="W56" t="inlineStr"/>
       <c r="X56" t="inlineStr"/>
       <c r="Y56" t="inlineStr"/>
@@ -3718,21 +3720,9 @@
       </c>
       <c r="S57" t="inlineStr"/>
       <c r="T57" t="inlineStr"/>
-      <c r="U57" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="V57" t="inlineStr">
-        <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="W57" t="inlineStr">
-        <is>
-          <t>Optima available, Equip</t>
-        </is>
-      </c>
+      <c r="U57" t="inlineStr"/>
+      <c r="V57" t="inlineStr"/>
+      <c r="W57" t="inlineStr"/>
       <c r="X57" t="inlineStr"/>
       <c r="Y57" t="inlineStr"/>
     </row>
@@ -3788,15 +3778,19 @@
       <c r="T58" t="inlineStr"/>
       <c r="U58" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="V58" t="inlineStr">
         <is>
-          <t>Carlie</t>
-        </is>
-      </c>
-      <c r="W58" t="inlineStr"/>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="W58" t="inlineStr">
+        <is>
+          <t>Optima available, Equip</t>
+        </is>
+      </c>
       <c r="X58" t="inlineStr"/>
       <c r="Y58" t="inlineStr"/>
     </row>
@@ -3851,12 +3845,12 @@
       <c r="T59" t="inlineStr"/>
       <c r="U59" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="V59" t="inlineStr">
         <is>
-          <t>Cynthia</t>
+          <t>Carlie</t>
         </is>
       </c>
       <c r="W59" t="inlineStr"/>
@@ -3910,12 +3904,12 @@
       <c r="T60" t="inlineStr"/>
       <c r="U60" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="V60" t="inlineStr">
         <is>
-          <t>Lashaun</t>
+          <t>Cynthia</t>
         </is>
       </c>
       <c r="W60" t="inlineStr"/>
@@ -3965,12 +3959,12 @@
       <c r="T61" t="inlineStr"/>
       <c r="U61" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="V61" t="inlineStr">
         <is>
-          <t>Monica</t>
+          <t>Lashaun</t>
         </is>
       </c>
       <c r="W61" t="inlineStr"/>
@@ -4021,12 +4015,12 @@
       <c r="T62" t="inlineStr"/>
       <c r="U62" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="V62" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Monica</t>
         </is>
       </c>
       <c r="W62" t="inlineStr"/>
@@ -4062,8 +4056,16 @@
       <c r="R63" t="inlineStr"/>
       <c r="S63" t="inlineStr"/>
       <c r="T63" t="inlineStr"/>
-      <c r="U63" t="inlineStr"/>
-      <c r="V63" t="inlineStr"/>
+      <c r="U63" t="inlineStr">
+        <is>
+          <t>6)</t>
+        </is>
+      </c>
+      <c r="V63" t="inlineStr">
+        <is>
+          <t>Paul</t>
+        </is>
+      </c>
       <c r="W63" t="inlineStr"/>
       <c r="X63" t="inlineStr"/>
       <c r="Y63" t="inlineStr"/>

--- a/11-09-25 to 11-15-25 Milwaukee Schedule.xlsx
+++ b/11-09-25 to 11-15-25 Milwaukee Schedule.xlsx
@@ -1430,7 +1430,7 @@
       <c r="K20" t="inlineStr">
         <is>
           <t>Driver,
-Red Van</t>
+Blk Camry</t>
         </is>
       </c>
       <c r="L20" t="inlineStr"/>
@@ -1679,7 +1679,7 @@
       <c r="O23" t="inlineStr">
         <is>
           <t>Driver,
-Red Van</t>
+Blk Camry</t>
         </is>
       </c>
       <c r="P23" t="inlineStr"/>
@@ -2818,7 +2818,7 @@
       <c r="W42" t="inlineStr">
         <is>
           <t>Driver,
-Red Van</t>
+Blk Camry</t>
         </is>
       </c>
       <c r="X42" t="inlineStr"/>

--- a/11-09-25 to 11-15-25 Milwaukee Schedule.xlsx
+++ b/11-09-25 to 11-15-25 Milwaukee Schedule.xlsx
@@ -1157,7 +1157,11 @@
       </c>
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>DJ / Katheirne meet at 4:15 at Ryan Rd</t>
+        </is>
+      </c>
       <c r="O16" t="inlineStr"/>
       <c r="P16" t="inlineStr"/>
       <c r="Q16" t="inlineStr">
@@ -1219,21 +1223,9 @@
         </is>
       </c>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="N17" t="inlineStr">
-        <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="O17" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="inlineStr"/>
+      <c r="O17" t="inlineStr"/>
       <c r="P17" t="inlineStr"/>
       <c r="Q17" t="inlineStr">
         <is>
@@ -1300,17 +1292,19 @@
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>Andrew</t>
+          <t>DJ</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>work w/ Leyna</t>
+          <t>@ Store,
+w/ Katherine,
+Equip</t>
         </is>
       </c>
       <c r="P18" t="inlineStr"/>
@@ -1367,15 +1361,19 @@
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>Caitlin</t>
-        </is>
-      </c>
-      <c r="O19" t="inlineStr"/>
+          <t>Andrew</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>work w/ Leyna</t>
+        </is>
+      </c>
       <c r="P19" t="inlineStr"/>
       <c r="Q19" t="inlineStr">
         <is>
@@ -1436,19 +1434,15 @@
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>Celina</t>
-        </is>
-      </c>
-      <c r="O20" t="inlineStr">
-        <is>
-          <t>work w/ Leyna</t>
-        </is>
-      </c>
+          <t>Caitlin</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr"/>
       <c r="P20" t="inlineStr"/>
       <c r="Q20" t="inlineStr">
         <is>
@@ -1512,15 +1506,19 @@
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>Greg</t>
-        </is>
-      </c>
-      <c r="O21" t="inlineStr"/>
+          <t>Celina</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>work w/ Leyna</t>
+        </is>
+      </c>
       <c r="P21" t="inlineStr"/>
       <c r="Q21" t="inlineStr">
         <is>
@@ -1588,20 +1586,15 @@
       <c r="L22" t="inlineStr"/>
       <c r="M22" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>Ian</t>
-        </is>
-      </c>
-      <c r="O22" t="inlineStr">
-        <is>
-          <t>Driver,
-Optima</t>
-        </is>
-      </c>
+          <t>Greg</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr"/>
       <c r="P22" t="inlineStr"/>
       <c r="Q22" t="inlineStr">
         <is>
@@ -1668,18 +1661,18 @@
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>Ian</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
           <t>Driver,
-Blk Camry</t>
+Optima</t>
         </is>
       </c>
       <c r="P23" t="inlineStr"/>
@@ -1748,15 +1741,20 @@
       <c r="L24" t="inlineStr"/>
       <c r="M24" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="O24" t="inlineStr"/>
+          <t>Jerry D</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>Driver,
+Santa Fe</t>
+        </is>
+      </c>
       <c r="P24" t="inlineStr"/>
       <c r="Q24" t="inlineStr">
         <is>
@@ -1823,15 +1821,20 @@
       <c r="L25" t="inlineStr"/>
       <c r="M25" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>Lexi</t>
-        </is>
-      </c>
-      <c r="O25" t="inlineStr"/>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>@ Store,
+w/ DJ</t>
+        </is>
+      </c>
       <c r="P25" t="inlineStr"/>
       <c r="Q25" t="inlineStr">
         <is>
@@ -1882,19 +1885,15 @@
       <c r="L26" t="inlineStr"/>
       <c r="M26" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>Leyna</t>
-        </is>
-      </c>
-      <c r="O26" t="inlineStr">
-        <is>
-          <t>Trainer</t>
-        </is>
-      </c>
+          <t>Lexi</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr"/>
       <c r="P26" t="inlineStr"/>
       <c r="Q26" t="inlineStr">
         <is>
@@ -1957,15 +1956,19 @@
       <c r="L27" t="inlineStr"/>
       <c r="M27" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>Paul</t>
-        </is>
-      </c>
-      <c r="O27" t="inlineStr"/>
+          <t>Leyna</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>Trainer</t>
+        </is>
+      </c>
       <c r="P27" t="inlineStr"/>
       <c r="Q27" t="inlineStr">
         <is>
@@ -2032,12 +2035,12 @@
       <c r="L28" t="inlineStr"/>
       <c r="M28" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="O28" t="inlineStr"/>
@@ -2103,12 +2106,12 @@
       <c r="L29" t="inlineStr"/>
       <c r="M29" t="inlineStr">
         <is>
-          <t>13)</t>
+          <t>12)</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>Sophia</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="O29" t="inlineStr"/>
@@ -2162,20 +2165,15 @@
       <c r="L30" t="inlineStr"/>
       <c r="M30" t="inlineStr">
         <is>
-          <t>14)</t>
+          <t>13)</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>Sue</t>
-        </is>
-      </c>
-      <c r="O30" t="inlineStr">
-        <is>
-          <t>Driver,
-Wht Camry</t>
-        </is>
-      </c>
+          <t>Sophia</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr"/>
       <c r="P30" t="inlineStr"/>
       <c r="Q30" t="inlineStr"/>
       <c r="R30" t="inlineStr"/>
@@ -2212,9 +2210,22 @@
       </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr"/>
-      <c r="N31" t="inlineStr"/>
-      <c r="O31" t="inlineStr"/>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>14)</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>Sue</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>Driver,
+Wht Camry</t>
+        </is>
+      </c>
       <c r="P31" t="inlineStr"/>
       <c r="Q31" t="inlineStr"/>
       <c r="R31" t="inlineStr"/>
@@ -2299,11 +2310,7 @@
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
       <c r="M33" t="inlineStr"/>
-      <c r="N33" t="inlineStr">
-        <is>
-          <t>4:45 AM OFFICE MEET</t>
-        </is>
-      </c>
+      <c r="N33" t="inlineStr"/>
       <c r="O33" t="inlineStr"/>
       <c r="P33" t="inlineStr"/>
       <c r="Q33" t="inlineStr"/>
@@ -2344,7 +2351,7 @@
       <c r="M34" t="inlineStr"/>
       <c r="N34" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>4:45 AM OFFICE MEET</t>
         </is>
       </c>
       <c r="O34" t="inlineStr"/>
@@ -2387,7 +2394,7 @@
       <c r="M35" t="inlineStr"/>
       <c r="N35" t="inlineStr">
         <is>
-          <t>SCAN-ITEM LEVEL</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="O35" t="inlineStr"/>
@@ -2443,7 +2450,7 @@
       <c r="M36" t="inlineStr"/>
       <c r="N36" t="inlineStr">
         <is>
-          <t>PICK #394, McFARLAND</t>
+          <t>SCAN-ITEM LEVEL</t>
         </is>
       </c>
       <c r="O36" t="inlineStr"/>
@@ -2494,7 +2501,7 @@
       <c r="M37" t="inlineStr"/>
       <c r="N37" t="inlineStr">
         <is>
-          <t>5709 HWY 51</t>
+          <t>PICK #394, McFARLAND</t>
         </is>
       </c>
       <c r="O37" t="inlineStr"/>
@@ -2537,7 +2544,7 @@
       <c r="M38" t="inlineStr"/>
       <c r="N38" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/TtWaYvRLFUy</t>
+          <t>5709 HWY 51</t>
         </is>
       </c>
       <c r="O38" t="inlineStr"/>
@@ -2570,7 +2577,11 @@
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
       <c r="M39" t="inlineStr"/>
-      <c r="N39" t="inlineStr"/>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/TtWaYvRLFUy</t>
+        </is>
+      </c>
       <c r="O39" t="inlineStr"/>
       <c r="P39" t="inlineStr"/>
       <c r="Q39" t="inlineStr">
@@ -2628,21 +2639,9 @@
       </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="N40" t="inlineStr">
-        <is>
-          <t>Bri</t>
-        </is>
-      </c>
-      <c r="O40" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="inlineStr"/>
+      <c r="O40" t="inlineStr"/>
       <c r="P40" t="inlineStr"/>
       <c r="Q40" t="inlineStr">
         <is>
@@ -2697,19 +2696,17 @@
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>Carlie</t>
+          <t>Bri</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>Driver,
-Red Camry,
-Trainer</t>
+          <t>@ Store, Equip</t>
         </is>
       </c>
       <c r="P41" t="inlineStr"/>
@@ -2779,15 +2776,21 @@
       <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>Monica</t>
-        </is>
-      </c>
-      <c r="O42" t="inlineStr"/>
+          <t>Carlie</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>Driver,
+Red Camry,
+Trainer</t>
+        </is>
+      </c>
       <c r="P42" t="inlineStr"/>
       <c r="Q42" t="inlineStr">
         <is>
@@ -2851,19 +2854,15 @@
       <c r="L43" t="inlineStr"/>
       <c r="M43" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>Zakiyah</t>
-        </is>
-      </c>
-      <c r="O43" t="inlineStr">
-        <is>
-          <t>work w/ Carlie</t>
-        </is>
-      </c>
+          <t>Monica</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr"/>
       <c r="P43" t="inlineStr"/>
       <c r="Q43" t="inlineStr">
         <is>
@@ -2915,17 +2914,17 @@
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>Anisha</t>
+          <t>Zakiyah</t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>work w/ Carlie</t>
         </is>
       </c>
       <c r="P44" t="inlineStr"/>
@@ -2974,12 +2973,12 @@
       <c r="L45" t="inlineStr"/>
       <c r="M45" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>Ashley P</t>
+          <t>Anisha</t>
         </is>
       </c>
       <c r="O45" t="inlineStr">
@@ -3037,12 +3036,12 @@
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>Elijah</t>
+          <t>Ashley P</t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
@@ -3112,12 +3111,12 @@
       <c r="L47" t="inlineStr"/>
       <c r="M47" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Elijah</t>
         </is>
       </c>
       <c r="O47" t="inlineStr">
@@ -3179,12 +3178,12 @@
       <c r="L48" t="inlineStr"/>
       <c r="M48" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="O48" t="inlineStr">
@@ -3247,12 +3246,12 @@
       <c r="L49" t="inlineStr"/>
       <c r="M49" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>Nate</t>
+          <t>Justin Lee</t>
         </is>
       </c>
       <c r="O49" t="inlineStr">
@@ -3304,9 +3303,21 @@
       </c>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="inlineStr"/>
-      <c r="N50" t="inlineStr"/>
-      <c r="O50" t="inlineStr"/>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>10)</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>Nate</t>
+        </is>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="P50" t="inlineStr"/>
       <c r="Q50" t="inlineStr">
         <is>
@@ -3411,11 +3422,7 @@
       </c>
       <c r="L52" t="inlineStr"/>
       <c r="M52" t="inlineStr"/>
-      <c r="N52" t="inlineStr">
-        <is>
-          <t>Office</t>
-        </is>
-      </c>
+      <c r="N52" t="inlineStr"/>
       <c r="O52" t="inlineStr"/>
       <c r="P52" t="inlineStr"/>
       <c r="Q52" t="inlineStr"/>
@@ -3473,7 +3480,7 @@
       <c r="M53" t="inlineStr"/>
       <c r="N53" t="inlineStr">
         <is>
-          <t>Kim</t>
+          <t>Office</t>
         </is>
       </c>
       <c r="O53" t="inlineStr"/>
@@ -3530,7 +3537,11 @@
       </c>
       <c r="L54" t="inlineStr"/>
       <c r="M54" t="inlineStr"/>
-      <c r="N54" t="inlineStr"/>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>Kim</t>
+        </is>
+      </c>
       <c r="O54" t="inlineStr"/>
       <c r="P54" t="inlineStr"/>
       <c r="Q54" t="inlineStr"/>

--- a/11-09-25 to 11-15-25 Milwaukee Schedule.xlsx
+++ b/11-09-25 to 11-15-25 Milwaukee Schedule.xlsx
@@ -754,7 +754,7 @@
       <c r="M8" t="inlineStr"/>
       <c r="N8" t="inlineStr">
         <is>
-          <t>4:15 AM MEET RYAN RD PNR (HWY 100 &amp; 94)</t>
+          <t>4:30 AM MEET RYAN RD PNR (HWY 100 &amp; 94)</t>
         </is>
       </c>
       <c r="O8" t="inlineStr"/>
@@ -1516,7 +1516,7 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>work w/ Leyna</t>
+          <t>work w/ Jerry</t>
         </is>
       </c>
       <c r="P21" t="inlineStr"/>
@@ -1752,7 +1752,8 @@
       <c r="O24" t="inlineStr">
         <is>
           <t>Driver,
-Santa Fe</t>
+Santa Fe,
+Trainer</t>
         </is>
       </c>
       <c r="P24" t="inlineStr"/>
@@ -2738,7 +2739,7 @@
       </c>
       <c r="W41" t="inlineStr">
         <is>
-          <t>work w/ Leyna</t>
+          <t>work w/ Jerry</t>
         </is>
       </c>
       <c r="X41" t="inlineStr"/>
@@ -2821,7 +2822,8 @@
       <c r="W42" t="inlineStr">
         <is>
           <t>Driver,
-Blk Camry</t>
+Blk Camry,
+Trainer</t>
         </is>
       </c>
       <c r="X42" t="inlineStr"/>

--- a/11-09-25 to 11-15-25 Milwaukee Schedule.xlsx
+++ b/11-09-25 to 11-15-25 Milwaukee Schedule.xlsx
@@ -1157,11 +1157,7 @@
       </c>
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr">
-        <is>
-          <t>DJ / Katheirne meet at 4:15 at Ryan Rd</t>
-        </is>
-      </c>
+      <c r="N16" t="inlineStr"/>
       <c r="O16" t="inlineStr"/>
       <c r="P16" t="inlineStr"/>
       <c r="Q16" t="inlineStr">
@@ -1303,7 +1299,6 @@
       <c r="O18" t="inlineStr">
         <is>
           <t>@ Store,
-w/ Katherine,
 Equip</t>
         </is>
       </c>
@@ -1830,12 +1825,7 @@
           <t>Katherine</t>
         </is>
       </c>
-      <c r="O25" t="inlineStr">
-        <is>
-          <t>@ Store,
-w/ DJ</t>
-        </is>
-      </c>
+      <c r="O25" t="inlineStr"/>
       <c r="P25" t="inlineStr"/>
       <c r="Q25" t="inlineStr">
         <is>
@@ -2112,7 +2102,7 @@
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Sophia</t>
         </is>
       </c>
       <c r="O29" t="inlineStr"/>
@@ -2171,10 +2161,15 @@
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>Sophia</t>
-        </is>
-      </c>
-      <c r="O30" t="inlineStr"/>
+          <t>Sue</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>Driver,
+Wht Camry</t>
+        </is>
+      </c>
       <c r="P30" t="inlineStr"/>
       <c r="Q30" t="inlineStr"/>
       <c r="R30" t="inlineStr"/>
@@ -2211,22 +2206,9 @@
       </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>14)</t>
-        </is>
-      </c>
-      <c r="N31" t="inlineStr">
-        <is>
-          <t>Sue</t>
-        </is>
-      </c>
-      <c r="O31" t="inlineStr">
-        <is>
-          <t>Driver,
-Wht Camry</t>
-        </is>
-      </c>
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="inlineStr"/>
+      <c r="O31" t="inlineStr"/>
       <c r="P31" t="inlineStr"/>
       <c r="Q31" t="inlineStr"/>
       <c r="R31" t="inlineStr"/>
@@ -2311,7 +2293,11 @@
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
       <c r="M33" t="inlineStr"/>
-      <c r="N33" t="inlineStr"/>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>4:45 AM OFFICE MEET</t>
+        </is>
+      </c>
       <c r="O33" t="inlineStr"/>
       <c r="P33" t="inlineStr"/>
       <c r="Q33" t="inlineStr"/>
@@ -2352,7 +2338,7 @@
       <c r="M34" t="inlineStr"/>
       <c r="N34" t="inlineStr">
         <is>
-          <t>4:45 AM OFFICE MEET</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="O34" t="inlineStr"/>
@@ -2395,7 +2381,7 @@
       <c r="M35" t="inlineStr"/>
       <c r="N35" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>SCAN-ITEM LEVEL</t>
         </is>
       </c>
       <c r="O35" t="inlineStr"/>
@@ -2451,7 +2437,7 @@
       <c r="M36" t="inlineStr"/>
       <c r="N36" t="inlineStr">
         <is>
-          <t>SCAN-ITEM LEVEL</t>
+          <t>PICK #394, McFARLAND</t>
         </is>
       </c>
       <c r="O36" t="inlineStr"/>
@@ -2502,7 +2488,7 @@
       <c r="M37" t="inlineStr"/>
       <c r="N37" t="inlineStr">
         <is>
-          <t>PICK #394, McFARLAND</t>
+          <t>5709 HWY 51</t>
         </is>
       </c>
       <c r="O37" t="inlineStr"/>
@@ -2545,7 +2531,7 @@
       <c r="M38" t="inlineStr"/>
       <c r="N38" t="inlineStr">
         <is>
-          <t>5709 HWY 51</t>
+          <t>https://goo.gl/maps/TtWaYvRLFUy</t>
         </is>
       </c>
       <c r="O38" t="inlineStr"/>
@@ -2578,11 +2564,7 @@
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
       <c r="M39" t="inlineStr"/>
-      <c r="N39" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/TtWaYvRLFUy</t>
-        </is>
-      </c>
+      <c r="N39" t="inlineStr"/>
       <c r="O39" t="inlineStr"/>
       <c r="P39" t="inlineStr"/>
       <c r="Q39" t="inlineStr">
@@ -2640,9 +2622,21 @@
       </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr"/>
-      <c r="N40" t="inlineStr"/>
-      <c r="O40" t="inlineStr"/>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>Bri</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="P40" t="inlineStr"/>
       <c r="Q40" t="inlineStr">
         <is>
@@ -2697,17 +2691,19 @@
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>Bri</t>
+          <t>Carlie</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>@ Store, Equip</t>
+          <t>Driver,
+Red Camry,
+Trainer</t>
         </is>
       </c>
       <c r="P41" t="inlineStr"/>
@@ -2777,21 +2773,15 @@
       <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>Carlie</t>
-        </is>
-      </c>
-      <c r="O42" t="inlineStr">
-        <is>
-          <t>Driver,
-Red Camry,
-Trainer</t>
-        </is>
-      </c>
+          <t>Monica</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr"/>
       <c r="P42" t="inlineStr"/>
       <c r="Q42" t="inlineStr">
         <is>
@@ -2856,15 +2846,19 @@
       <c r="L43" t="inlineStr"/>
       <c r="M43" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>Monica</t>
-        </is>
-      </c>
-      <c r="O43" t="inlineStr"/>
+          <t>Zakiyah</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>work w/ Carlie</t>
+        </is>
+      </c>
       <c r="P43" t="inlineStr"/>
       <c r="Q43" t="inlineStr">
         <is>
@@ -2916,17 +2910,17 @@
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>Zakiyah</t>
+          <t>Anisha</t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>work w/ Carlie</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="P44" t="inlineStr"/>
@@ -2975,12 +2969,12 @@
       <c r="L45" t="inlineStr"/>
       <c r="M45" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>Anisha</t>
+          <t>Ashley P</t>
         </is>
       </c>
       <c r="O45" t="inlineStr">
@@ -3038,12 +3032,12 @@
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>Ashley P</t>
+          <t>Elijah</t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
@@ -3113,12 +3107,12 @@
       <c r="L47" t="inlineStr"/>
       <c r="M47" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>Elijah</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="O47" t="inlineStr">
@@ -3180,12 +3174,12 @@
       <c r="L48" t="inlineStr"/>
       <c r="M48" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Justin Lee</t>
         </is>
       </c>
       <c r="O48" t="inlineStr">
@@ -3248,12 +3242,12 @@
       <c r="L49" t="inlineStr"/>
       <c r="M49" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
+          <t>Nate</t>
         </is>
       </c>
       <c r="O49" t="inlineStr">
@@ -3305,21 +3299,9 @@
       </c>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="inlineStr">
-        <is>
-          <t>10)</t>
-        </is>
-      </c>
-      <c r="N50" t="inlineStr">
-        <is>
-          <t>Nate</t>
-        </is>
-      </c>
-      <c r="O50" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="inlineStr"/>
+      <c r="O50" t="inlineStr"/>
       <c r="P50" t="inlineStr"/>
       <c r="Q50" t="inlineStr">
         <is>
@@ -3424,7 +3406,11 @@
       </c>
       <c r="L52" t="inlineStr"/>
       <c r="M52" t="inlineStr"/>
-      <c r="N52" t="inlineStr"/>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>Office</t>
+        </is>
+      </c>
       <c r="O52" t="inlineStr"/>
       <c r="P52" t="inlineStr"/>
       <c r="Q52" t="inlineStr"/>
@@ -3482,7 +3468,7 @@
       <c r="M53" t="inlineStr"/>
       <c r="N53" t="inlineStr">
         <is>
-          <t>Office</t>
+          <t>Kim</t>
         </is>
       </c>
       <c r="O53" t="inlineStr"/>
@@ -3539,11 +3525,7 @@
       </c>
       <c r="L54" t="inlineStr"/>
       <c r="M54" t="inlineStr"/>
-      <c r="N54" t="inlineStr">
-        <is>
-          <t>Kim</t>
-        </is>
-      </c>
+      <c r="N54" t="inlineStr"/>
       <c r="O54" t="inlineStr"/>
       <c r="P54" t="inlineStr"/>
       <c r="Q54" t="inlineStr"/>

--- a/11-09-25 to 11-15-25 Milwaukee Schedule.xlsx
+++ b/11-09-25 to 11-15-25 Milwaukee Schedule.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y81"/>
+  <dimension ref="A1:Y80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4396,7 +4396,7 @@
       </c>
       <c r="R73" t="inlineStr">
         <is>
-          <t>Ariel</t>
+          <t xml:space="preserve">Dan </t>
         </is>
       </c>
       <c r="S73" t="inlineStr">
@@ -4435,7 +4435,7 @@
       </c>
       <c r="R74" t="inlineStr">
         <is>
-          <t xml:space="preserve">Dan </t>
+          <t>Katie</t>
         </is>
       </c>
       <c r="S74" t="inlineStr">
@@ -4474,7 +4474,7 @@
       </c>
       <c r="R75" t="inlineStr">
         <is>
-          <t>Katie</t>
+          <t>Lori</t>
         </is>
       </c>
       <c r="S75" t="inlineStr">
@@ -4513,7 +4513,7 @@
       </c>
       <c r="R76" t="inlineStr">
         <is>
-          <t>Lori</t>
+          <t>Madison</t>
         </is>
       </c>
       <c r="S76" t="inlineStr">
@@ -4552,7 +4552,7 @@
       </c>
       <c r="R77" t="inlineStr">
         <is>
-          <t>Madison</t>
+          <t>Michelle</t>
         </is>
       </c>
       <c r="S77" t="inlineStr">
@@ -4591,7 +4591,7 @@
       </c>
       <c r="R78" t="inlineStr">
         <is>
-          <t>Michelle</t>
+          <t>Nagui</t>
         </is>
       </c>
       <c r="S78" t="inlineStr">
@@ -4630,7 +4630,7 @@
       </c>
       <c r="R79" t="inlineStr">
         <is>
-          <t>Nagui</t>
+          <t>Taya</t>
         </is>
       </c>
       <c r="S79" t="inlineStr">
@@ -4669,7 +4669,7 @@
       </c>
       <c r="R80" t="inlineStr">
         <is>
-          <t>Taya</t>
+          <t>Terri</t>
         </is>
       </c>
       <c r="S80" t="inlineStr">
@@ -4684,45 +4684,6 @@
       <c r="X80" t="inlineStr"/>
       <c r="Y80" t="inlineStr"/>
     </row>
-    <row r="81">
-      <c r="A81" t="inlineStr"/>
-      <c r="B81" t="inlineStr"/>
-      <c r="C81" t="inlineStr"/>
-      <c r="D81" t="inlineStr"/>
-      <c r="E81" t="inlineStr"/>
-      <c r="F81" t="inlineStr"/>
-      <c r="G81" t="inlineStr"/>
-      <c r="H81" t="inlineStr"/>
-      <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="inlineStr"/>
-      <c r="N81" t="inlineStr"/>
-      <c r="O81" t="inlineStr"/>
-      <c r="P81" t="inlineStr"/>
-      <c r="Q81" t="inlineStr">
-        <is>
-          <t>11)</t>
-        </is>
-      </c>
-      <c r="R81" t="inlineStr">
-        <is>
-          <t>Terri</t>
-        </is>
-      </c>
-      <c r="S81" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
-      <c r="T81" t="inlineStr"/>
-      <c r="U81" t="inlineStr"/>
-      <c r="V81" t="inlineStr"/>
-      <c r="W81" t="inlineStr"/>
-      <c r="X81" t="inlineStr"/>
-      <c r="Y81" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/11-09-25 to 11-15-25 Milwaukee Schedule.xlsx
+++ b/11-09-25 to 11-15-25 Milwaukee Schedule.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y80"/>
+  <dimension ref="A1:Y81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4435,12 +4435,12 @@
       </c>
       <c r="R74" t="inlineStr">
         <is>
-          <t>Katie</t>
+          <t>Josie</t>
         </is>
       </c>
       <c r="S74" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store, Until 10:45</t>
         </is>
       </c>
       <c r="T74" t="inlineStr"/>
@@ -4474,7 +4474,7 @@
       </c>
       <c r="R75" t="inlineStr">
         <is>
-          <t>Lori</t>
+          <t>Katie</t>
         </is>
       </c>
       <c r="S75" t="inlineStr">
@@ -4513,7 +4513,7 @@
       </c>
       <c r="R76" t="inlineStr">
         <is>
-          <t>Madison</t>
+          <t>Lori</t>
         </is>
       </c>
       <c r="S76" t="inlineStr">
@@ -4552,7 +4552,7 @@
       </c>
       <c r="R77" t="inlineStr">
         <is>
-          <t>Michelle</t>
+          <t>Madison</t>
         </is>
       </c>
       <c r="S77" t="inlineStr">
@@ -4591,7 +4591,7 @@
       </c>
       <c r="R78" t="inlineStr">
         <is>
-          <t>Nagui</t>
+          <t>Michelle</t>
         </is>
       </c>
       <c r="S78" t="inlineStr">
@@ -4630,7 +4630,7 @@
       </c>
       <c r="R79" t="inlineStr">
         <is>
-          <t>Taya</t>
+          <t>Nagui</t>
         </is>
       </c>
       <c r="S79" t="inlineStr">
@@ -4669,7 +4669,7 @@
       </c>
       <c r="R80" t="inlineStr">
         <is>
-          <t>Terri</t>
+          <t>Taya</t>
         </is>
       </c>
       <c r="S80" t="inlineStr">
@@ -4684,6 +4684,45 @@
       <c r="X80" t="inlineStr"/>
       <c r="Y80" t="inlineStr"/>
     </row>
+    <row r="81">
+      <c r="A81" t="inlineStr"/>
+      <c r="B81" t="inlineStr"/>
+      <c r="C81" t="inlineStr"/>
+      <c r="D81" t="inlineStr"/>
+      <c r="E81" t="inlineStr"/>
+      <c r="F81" t="inlineStr"/>
+      <c r="G81" t="inlineStr"/>
+      <c r="H81" t="inlineStr"/>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
+      <c r="M81" t="inlineStr"/>
+      <c r="N81" t="inlineStr"/>
+      <c r="O81" t="inlineStr"/>
+      <c r="P81" t="inlineStr"/>
+      <c r="Q81" t="inlineStr">
+        <is>
+          <t>11)</t>
+        </is>
+      </c>
+      <c r="R81" t="inlineStr">
+        <is>
+          <t>Terri</t>
+        </is>
+      </c>
+      <c r="S81" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
+      <c r="T81" t="inlineStr"/>
+      <c r="U81" t="inlineStr"/>
+      <c r="V81" t="inlineStr"/>
+      <c r="W81" t="inlineStr"/>
+      <c r="X81" t="inlineStr"/>
+      <c r="Y81" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/11-09-25 to 11-15-25 Milwaukee Schedule.xlsx
+++ b/11-09-25 to 11-15-25 Milwaukee Schedule.xlsx
@@ -3069,7 +3069,7 @@
       </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>Sophia</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="W46" t="inlineStr"/>
@@ -3140,7 +3140,7 @@
       </c>
       <c r="V47" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Sophia</t>
         </is>
       </c>
       <c r="W47" t="inlineStr"/>
